--- a/data/hotels_by_city/Denver/Denver_shard_93.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_93.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33471-d84858-Reviews-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Fairfield-Inn-Suites-By-Marriott-Denver-Tech-CenterSouth.h42118.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1067 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r555703957-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>33471</t>
+  </si>
+  <si>
+    <t>84858</t>
+  </si>
+  <si>
+    <t>555703957</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just I one redeeming quality....Ouch </t>
+  </si>
+  <si>
+    <t>Not greeted as a premium member at check in.  Then the front desk lady begged me to take the points instead of the market item. Still for the life of me can’t figure that out especially since I had to come back down to pay for a bottle of water. Another guest and I both asked for dinner options and were told there was none. However thankfully Siri found me a Pizza Hut 2.4 miles away. Not helpful at all. Hotel was a bit dated. Maybe I expected a lot from a Fairfield in. Room was very uncomfortable. I pulled the cover back at bedtime to discover that the sheets were not made. That gave me the creeps. Bathroom had a funny musty smell. I came down for the complimentary breakfast at 7:45. Coffee was cold. Really? The only redeeming quality for this hotel was the price. But for the Marriott experience and comfort I would rather pay $10 to $30 more for a different location. Disappointed!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Chris T, Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Not greeted as a premium member at check in.  Then the front desk lady begged me to take the points instead of the market item. Still for the life of me can’t figure that out especially since I had to come back down to pay for a bottle of water. Another guest and I both asked for dinner options and were told there was none. However thankfully Siri found me a Pizza Hut 2.4 miles away. Not helpful at all. Hotel was a bit dated. Maybe I expected a lot from a Fairfield in. Room was very uncomfortable. I pulled the cover back at bedtime to discover that the sheets were not made. That gave me the creeps. Bathroom had a funny musty smell. I came down for the complimentary breakfast at 7:45. Coffee was cold. Really? The only redeeming quality for this hotel was the price. But for the Marriott experience and comfort I would rather pay $10 to $30 more for a different location. Disappointed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r554091499-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>554091499</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here after coming down the mountains. The beds were so comfortable, which was wonderful after a long cold day in the Colorado Rockies. The room was clean, staff polite, temperature in room easily controlled. My only complaints are coffee in lobby luke warm and hot tub was broken.. All in all great stay. Will stay again. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r548681743-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>548681743</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Very good hotel, convenient location if you have a car</t>
+  </si>
+  <si>
+    <t>Stayed two nights in mid-December.  The hotel was clean, the bed was comfortable, and as someone noted below the water pressure for the show was perfect.Hotel staff was very friendly and the breakfast area was clean, well-stocked, and fresh.The only downside to our visit (and I didn't deduct any points on the rating for this) was our room was adjoining the exercise room.   So at various points in the morning we would here the noise of people working out - this can be avoided by not getting room 106 :).If you have a car, there are several malls/shopping centers close by with a wide variety of dining options.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r510795654-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>510795654</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>Clean rooms, very comfortable beds, great location but what took this property from four stars to five is their employees!  They really go out of their way to make your stay exceed all expectations! Eugenia at the front desk was very helpful and went above and beyond :-) with all of the hotels in Denver area to choose from Fairfield is an excellent option.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Justin W, Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Clean rooms, very comfortable beds, great location but what took this property from four stars to five is their employees!  They really go out of their way to make your stay exceed all expectations! Eugenia at the front desk was very helpful and went above and beyond :-) with all of the hotels in Denver area to choose from Fairfield is an excellent option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r510333401-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>510333401</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Basic but clean</t>
+  </si>
+  <si>
+    <t>I had to deduct a star because (1) there was no fitted sheet for the crib, which is a safety hazard, and (2) the HVAC fan had an "on" setting, but only worked as "auto" (so noise could not be drowned out).  I had an extremely noisy upstairs neighbor. Otherwise, the hotel was nice. Courteous staff, decent size room, nice fridge, Moen shower head with GREAT water pressure. The location was fine for my purposes, but there really isn't anything within walking distance. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>I had to deduct a star because (1) there was no fitted sheet for the crib, which is a safety hazard, and (2) the HVAC fan had an "on" setting, but only worked as "auto" (so noise could not be drowned out).  I had an extremely noisy upstairs neighbor. Otherwise, the hotel was nice. Courteous staff, decent size room, nice fridge, Moen shower head with GREAT water pressure. The location was fine for my purposes, but there really isn't anything within walking distance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r508814644-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>508814644</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Very Good Experience, Excellent Staff, Good Facility</t>
+  </si>
+  <si>
+    <t>Very much enjoyed the stay.  The staff were very accommodating.  They helped us change rooms to avoid a particular situation.  And when we related a problem that we had, requiring an item that needed to be mailed, they were more than gracious in taking care of it for us.  The household staff and engineering were very helpful.  Toilets clogged twice (this seems to be a very common occurrence across all Marriott chains) and they were they to help us with a plunger.  The breakfast area was well stocked each morning, but, why vegey sausage (every day)?  Other items included an egg (scrambled one day, omelet the next), fruit, yogurt choices, juices, coffees, toasts, butters/jams, pastries, and waffles.  Pool and exercise areas are available.  Parking is close to the entrance and around the hotel, the parking seemed to be limited, but, we always found a spot.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Very much enjoyed the stay.  The staff were very accommodating.  They helped us change rooms to avoid a particular situation.  And when we related a problem that we had, requiring an item that needed to be mailed, they were more than gracious in taking care of it for us.  The household staff and engineering were very helpful.  Toilets clogged twice (this seems to be a very common occurrence across all Marriott chains) and they were they to help us with a plunger.  The breakfast area was well stocked each morning, but, why vegey sausage (every day)?  Other items included an egg (scrambled one day, omelet the next), fruit, yogurt choices, juices, coffees, toasts, butters/jams, pastries, and waffles.  Pool and exercise areas are available.  Parking is close to the entrance and around the hotel, the parking seemed to be limited, but, we always found a spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r446193232-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>446193232</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>Merry Christmas🎁</t>
+  </si>
+  <si>
+    <t>We knew about the construction before we arrived and Chad blocked our room as far away as possible, thanks.  Room clean and quit. Close to C470, ParkMeadows-a mall with everything, close to my Familyand friends. A white Christmas is in the forecast.  Merry Christmas to all!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2016</t>
+  </si>
+  <si>
+    <t>We knew about the construction before we arrived and Chad blocked our room as far away as possible, thanks.  Room clean and quit. Close to C470, ParkMeadows-a mall with everything, close to my Familyand friends. A white Christmas is in the forecast.  Merry Christmas to all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r445059276-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>445059276</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t>OK but needs some attention</t>
+  </si>
+  <si>
+    <t>The location is easy to find.  There are not too many restaurant choices within walking distance of this location.  The reception staff was friendly but sometimes you had to go out of your way to engage them and get information.  One time I had a great deal of trouble getting the person to look up from his phone to answer a question.  The breakfast was standard fare but better than some places.  Upholstery in the breakfast area was in tatters.  It needs to be replaced. Our room was OK.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2016</t>
+  </si>
+  <si>
+    <t>The location is easy to find.  There are not too many restaurant choices within walking distance of this location.  The reception staff was friendly but sometimes you had to go out of your way to engage them and get information.  One time I had a great deal of trouble getting the person to look up from his phone to answer a question.  The breakfast was standard fare but better than some places.  Upholstery in the breakfast area was in tatters.  It needs to be replaced. Our room was OK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r444322793-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>444322793</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay</t>
+  </si>
+  <si>
+    <t>Close to food, gas, and almost any store you can think of. The staff is very friendly and helpful. The rooms were clean big and comfort. We had 2 other couples hanging out in our room and it was perfect for the games we played. (Bad apples and never have I ever). The view looking out to the freeway was redeemed by all the wildlife move up and down the trails. All in all an amazing trip!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2016</t>
+  </si>
+  <si>
+    <t>Close to food, gas, and almost any store you can think of. The staff is very friendly and helpful. The rooms were clean big and comfort. We had 2 other couples hanging out in our room and it was perfect for the games we played. (Bad apples and never have I ever). The view looking out to the freeway was redeemed by all the wildlife move up and down the trails. All in all an amazing trip!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r420796088-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>420796088</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>The 1990s called and want their hotel room back</t>
+  </si>
+  <si>
+    <t>First off, the staff at this hotel were super nice, and were this hotels only redeeming feature.
+Unfortunately it is down hill from there...
+The room I was given is one of the worst I have stayed in all year, and I stay in a lot of hotels.  There is a musty smell that tends to happen after a hotel room is years past renovation time.  And the room was clearly designed when the nation still asked if Ross and Rachel were on a break.
+First off, power outlets are at a premium, and are hidden away behind furniture and in places best not explored in hotel rooms.  Sit down at the 'desk' (table) and trace your fingers along the cord of the lamp and you'll find an off switch.  Keep going and you'll find an outlet that you have to crawl behind the 'desk' to plug in your laptop.  You may as well charge your tablet and phone from the computer, because there's only two free outlets down there.
+The air conditioning system is a complete joke.  From the smell, long overdue for a clean.  And without a shadow of a doubt the noisiest of any hotel I've stayed in this year (and I've stayed in dozens).  Even set to low, even trying to sleep in the bed furthest away from the unit, it is like trying to sleep next to a leaf blower.  Completely ridiculous.  So you kind...First off, the staff at this hotel were super nice, and were this hotels only redeeming feature.Unfortunately it is down hill from there...The room I was given is one of the worst I have stayed in all year, and I stay in a lot of hotels.  There is a musty smell that tends to happen after a hotel room is years past renovation time.  And the room was clearly designed when the nation still asked if Ross and Rachel were on a break.First off, power outlets are at a premium, and are hidden away behind furniture and in places best not explored in hotel rooms.  Sit down at the 'desk' (table) and trace your fingers along the cord of the lamp and you'll find an off switch.  Keep going and you'll find an outlet that you have to crawl behind the 'desk' to plug in your laptop.  You may as well charge your tablet and phone from the computer, because there's only two free outlets down there.The air conditioning system is a complete joke.  From the smell, long overdue for a clean.  And without a shadow of a doubt the noisiest of any hotel I've stayed in this year (and I've stayed in dozens).  Even set to low, even trying to sleep in the bed furthest away from the unit, it is like trying to sleep next to a leaf blower.  Completely ridiculous.  So you kind of have to try and get the room to the desired temperature, and hope it neither gets too hot or cold in the night.And don't get me wrong, I am not a light sleeper.  I'm not one of those people who has to have silence and pitch black darkness to sleep.  But this was insane.  I did try on the second night to sleep with it on, but I had to throw in the towel, unable to even get to sleep.When I arrived, I noted that there was some residue of excrement in the toilet bowl.  This is highly unusual, as even the worst hotels typically remember to flush.  In fairness, the toilet was broken, so you had to remove the tank lid and slam the lever a few times to get the cistern to fill up.  Because that's what you want to do first thing in the morning.The maids had left me not one, but three large black hairs in the bath tub, which was very kind of them.  I'm more a chocolate on the pillow kind of guy, but hey, what can you do.The bed was small and hard.  But the pillows were okay.I got a room with what they euphemistically call a partial view.  This means that you can't see much of anything, but the window is still situated such that you have to keep the curtains closed at all times, or people can easily see into the room.As I write this, Trip Advisor had some other reviews on my screen which said things like "A good stay" and "A great place to stay..."  I can only assume that the entire rest of the hotel has been remodeled and that I was left with the 1990s theme room.  Because for the life of me, I cannot understand how anyone who has stayed in a hotel since Johnny Carson retired, would be impressed.To add insult to injury the second night of my stay the rate passed $150, which was a compete travesty.  At best this is an $89 hotel, which should NEVER be charging more than $100.I recently stayed in a suite at a J W Marriott in Las Vegas for $126.  It was beautiful, and almost inconveniently large.  I even stayed in a Residence Inn in Los Angeles with a view of the LA skyline for less than $150.With recent memories like that, it is especially galling to pay this kind of money for a tired old hotel in an unremarkable suburb of Denver.This dark, dingy and musty hotel room is too expensive, too small, too disappointing, and only has one redeeming feature, and that is that the staff seem chipper.  Without that, I'd have dropped this to one Trip Advisor green circle.Oh, and even the premium Internet sucks.  I've had better in obscure towns in Mississippi, Tennessee and various other small towns not close to anything.  I can't even imagine how crappy the free Internet is.  Inexcusable at this price point, and being located this close to a major city.After one night, I booked another hotel and told the front desk my travel plans had changed.  I was planning on staying the week, but despite the hassle of packing up my room and leaving, I'm not staying another night in this hotel.  I'd rather pay double and cover the difference out of my own pocket than give a hotel like this another nickel of my money.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>First off, the staff at this hotel were super nice, and were this hotels only redeeming feature.
+Unfortunately it is down hill from there...
+The room I was given is one of the worst I have stayed in all year, and I stay in a lot of hotels.  There is a musty smell that tends to happen after a hotel room is years past renovation time.  And the room was clearly designed when the nation still asked if Ross and Rachel were on a break.
+First off, power outlets are at a premium, and are hidden away behind furniture and in places best not explored in hotel rooms.  Sit down at the 'desk' (table) and trace your fingers along the cord of the lamp and you'll find an off switch.  Keep going and you'll find an outlet that you have to crawl behind the 'desk' to plug in your laptop.  You may as well charge your tablet and phone from the computer, because there's only two free outlets down there.
+The air conditioning system is a complete joke.  From the smell, long overdue for a clean.  And without a shadow of a doubt the noisiest of any hotel I've stayed in this year (and I've stayed in dozens).  Even set to low, even trying to sleep in the bed furthest away from the unit, it is like trying to sleep next to a leaf blower.  Completely ridiculous.  So you kind...First off, the staff at this hotel were super nice, and were this hotels only redeeming feature.Unfortunately it is down hill from there...The room I was given is one of the worst I have stayed in all year, and I stay in a lot of hotels.  There is a musty smell that tends to happen after a hotel room is years past renovation time.  And the room was clearly designed when the nation still asked if Ross and Rachel were on a break.First off, power outlets are at a premium, and are hidden away behind furniture and in places best not explored in hotel rooms.  Sit down at the 'desk' (table) and trace your fingers along the cord of the lamp and you'll find an off switch.  Keep going and you'll find an outlet that you have to crawl behind the 'desk' to plug in your laptop.  You may as well charge your tablet and phone from the computer, because there's only two free outlets down there.The air conditioning system is a complete joke.  From the smell, long overdue for a clean.  And without a shadow of a doubt the noisiest of any hotel I've stayed in this year (and I've stayed in dozens).  Even set to low, even trying to sleep in the bed furthest away from the unit, it is like trying to sleep next to a leaf blower.  Completely ridiculous.  So you kind of have to try and get the room to the desired temperature, and hope it neither gets too hot or cold in the night.And don't get me wrong, I am not a light sleeper.  I'm not one of those people who has to have silence and pitch black darkness to sleep.  But this was insane.  I did try on the second night to sleep with it on, but I had to throw in the towel, unable to even get to sleep.When I arrived, I noted that there was some residue of excrement in the toilet bowl.  This is highly unusual, as even the worst hotels typically remember to flush.  In fairness, the toilet was broken, so you had to remove the tank lid and slam the lever a few times to get the cistern to fill up.  Because that's what you want to do first thing in the morning.The maids had left me not one, but three large black hairs in the bath tub, which was very kind of them.  I'm more a chocolate on the pillow kind of guy, but hey, what can you do.The bed was small and hard.  But the pillows were okay.I got a room with what they euphemistically call a partial view.  This means that you can't see much of anything, but the window is still situated such that you have to keep the curtains closed at all times, or people can easily see into the room.As I write this, Trip Advisor had some other reviews on my screen which said things like "A good stay" and "A great place to stay..."  I can only assume that the entire rest of the hotel has been remodeled and that I was left with the 1990s theme room.  Because for the life of me, I cannot understand how anyone who has stayed in a hotel since Johnny Carson retired, would be impressed.To add insult to injury the second night of my stay the rate passed $150, which was a compete travesty.  At best this is an $89 hotel, which should NEVER be charging more than $100.I recently stayed in a suite at a J W Marriott in Las Vegas for $126.  It was beautiful, and almost inconveniently large.  I even stayed in a Residence Inn in Los Angeles with a view of the LA skyline for less than $150.With recent memories like that, it is especially galling to pay this kind of money for a tired old hotel in an unremarkable suburb of Denver.This dark, dingy and musty hotel room is too expensive, too small, too disappointing, and only has one redeeming feature, and that is that the staff seem chipper.  Without that, I'd have dropped this to one Trip Advisor green circle.Oh, and even the premium Internet sucks.  I've had better in obscure towns in Mississippi, Tennessee and various other small towns not close to anything.  I can't even imagine how crappy the free Internet is.  Inexcusable at this price point, and being located this close to a major city.After one night, I booked another hotel and told the front desk my travel plans had changed.  I was planning on staying the week, but despite the hassle of packing up my room and leaving, I'm not staying another night in this hotel.  I'd rather pay double and cover the difference out of my own pocket than give a hotel like this another nickel of my money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r401094704-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>401094704</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>A good stay</t>
+  </si>
+  <si>
+    <t>Check in was simple, they had my booking on-line &amp; a room allocated for me. The staff were very friendly &amp; informative. I was one the 2nd floor &amp; there was a lift. The room was very spacious &amp; clean. The bath room was also spacious &amp; compact. The bed was clean &amp; comfortable. I had no issues with internal or external noise. There was plenty of parking in close vicinity of the main entrance. The indoor pool was very popular. They have free WiFi which I found was strong. There were several eateries &amp; shops in the vicinity. I would certainly stay here again</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r400893441-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>400893441</t>
+  </si>
+  <si>
+    <t>Ok at best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's pretty dark in the rooms. The place is in need of an update. I asked for upper floor when I made reservations . Got the first floor.  Most of the staff was good. The guy at checkout clearly needed more training as he couldn't figure out how to give me a copy of my bill statement showing what I had been charged/paid. I wouldn't stay there again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r386713621-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>386713621</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Fine. Nothing spectacular.</t>
+  </si>
+  <si>
+    <t>Everything was fine. Furniture in lobby/breakfast was very worn. Breakfast was typical Fairfield, as was the pool. The price wasn't bad though. Staff was friendly and room was clean. Location was good, with multiple stores close by for shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Shaun H, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Everything was fine. Furniture in lobby/breakfast was very worn. Breakfast was typical Fairfield, as was the pool. The price wasn't bad though. Staff was friendly and room was clean. Location was good, with multiple stores close by for shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r385789363-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>385789363</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a wonderful time. Stayed 5 nights. Great hotel. Very very comfortable beds. Great location. Close to everything! Staff was wonderful. I have low expectations when it comes to breakfast. Breakfast was only ok. I found something I like to fill me up. But stay away from waffles. The machine does not cook them correctly. They look done but never are. I tried them more than once hoping it was an isolated issue. But the bacon was wonderful!  Ask for a room where you have option to leave fan on all night. Otherwise air conditioning unit comes on and off all night and will wake you. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r385072087-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>385072087</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Room and amenities met my expectations - clean, king size bed, living room, microwave, fridge. I didn't like that the sink was not in the bathroom, but it wasn't a big deal. The location is nice too with restaurants / stores nearby. I love that breakfast was served.Overall I think I got good value with what I paid for.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r298757858-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>298757858</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>OK, but nothing special</t>
+  </si>
+  <si>
+    <t>I was only here for one night.  It as a basic hotel that looks like it could use some renovations.  The check-in experience was fine and the room was quiet, so the fundamentals were covered.  As others have mentioned, the breakfast was pretty spartan and the breakfast room was a little depressing.  In general there was nothing great and nothing too bad, so it was ok for a one night business stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Nick A, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2015</t>
+  </si>
+  <si>
+    <t>I was only here for one night.  It as a basic hotel that looks like it could use some renovations.  The check-in experience was fine and the room was quiet, so the fundamentals were covered.  As others have mentioned, the breakfast was pretty spartan and the breakfast room was a little depressing.  In general there was nothing great and nothing too bad, so it was ok for a one night business stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r292497016-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>292497016</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel with friendly staff</t>
+  </si>
+  <si>
+    <t>The hotel is near to the Denver Tech center and othet offices around the Greenwood Village &amp; High Ranches which is a great plus.The rooms are spacious, the kitchen is well equipped and there is a great swimming pool with a comfortable sit out which overlooks the meadows.There are more than a couple of restaurants in the area within walking distance from the Hotel and the locality around is quiet and green without any disturbance.Staff are friendly and the check in &amp; Check out was a breeze.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r290578244-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>290578244</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Great location, updated lobby, nice property, superb service</t>
+  </si>
+  <si>
+    <t>Visited in May, stayed here 4 days, very central to clients and event I attended.  Not in the middle of a busy zone, but great access to highways and byways.  Well kept property, nice lobby with bar and some food.  Rooms are big, Nice indoor pool and whirlpool, nice weight room, very nice grounds, especially the back.  Felt very secure front desk was very helpful and friendly.  Close to mall, stores and business district.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r253963276-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>253963276</t>
+  </si>
+  <si>
+    <t>02/13/2015</t>
+  </si>
+  <si>
+    <t>Booked 7 rooms for 5 nights --- hope to stay there again next year!</t>
+  </si>
+  <si>
+    <t>It is often "challenging" to find a hotel which ends up making everyone in a group "happy", but the Fairfield Inn &amp; Suites Denver Tech Center/South accomplished that "challenging" feat for our company last week.  Our company booked seven (7) rooms for 5 straight nights for our out-of-towns employees who flew in to be a part of our annual meeting, held in our corporate office in Denver.  In short, everything and everyone at this Fairfield Inn was truly "consistent", "reliable", and truly "outstanding".
+I am the Global Tour Specialist at QueensLander Tours, based in Denver, Colorado, and I was assigned the task of securing rooms at a hotel for our employees who were flying into Denver to attend our annual meeting.   It was so encouraging to have the General Manager made the booking process "quick and easy", and he, along with his entire staff, went out of their way to made sure our employees' stay was "perfect" in every way.   The hotel AND the service receive an A+ rating!
+I especially want to thank the General Manager, Nick, for all of his assistance both before, during, and even following our stay at this hotel.   In addition, I especially want to commend two of the many outstanding staff members --- Nate and Dakota --- for the wonderful customer service they provided.  
+The rooms at the hotel were always "extra-clean", quiet, and the breakfast choices were both delicious and abundant.  Our company...It is often "challenging" to find a hotel which ends up making everyone in a group "happy", but the Fairfield Inn &amp; Suites Denver Tech Center/South accomplished that "challenging" feat for our company last week.  Our company booked seven (7) rooms for 5 straight nights for our out-of-towns employees who flew in to be a part of our annual meeting, held in our corporate office in Denver.  In short, everything and everyone at this Fairfield Inn was truly "consistent", "reliable", and truly "outstanding".I am the Global Tour Specialist at QueensLander Tours, based in Denver, Colorado, and I was assigned the task of securing rooms at a hotel for our employees who were flying into Denver to attend our annual meeting.   It was so encouraging to have the General Manager made the booking process "quick and easy", and he, along with his entire staff, went out of their way to made sure our employees' stay was "perfect" in every way.   The hotel AND the service receive an A+ rating!I especially want to thank the General Manager, Nick, for all of his assistance both before, during, and even following our stay at this hotel.   In addition, I especially want to commend two of the many outstanding staff members --- Nate and Dakota --- for the wonderful customer service they provided.  The rooms at the hotel were always "extra-clean", quiet, and the breakfast choices were both delicious and abundant.  Our company felt that we received excellent "value" for the beautiful rooms, personal service, and outstanding breakfast offered each day.  It would be our hope that we would be able to secure rooms at this hotel once again for our meeting next year as well.  We could not have been more pleased with this Fairfield Inn, and we wish this service-oriented, excellent hotel the "very best".MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Nick A, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2015</t>
+  </si>
+  <si>
+    <t>It is often "challenging" to find a hotel which ends up making everyone in a group "happy", but the Fairfield Inn &amp; Suites Denver Tech Center/South accomplished that "challenging" feat for our company last week.  Our company booked seven (7) rooms for 5 straight nights for our out-of-towns employees who flew in to be a part of our annual meeting, held in our corporate office in Denver.  In short, everything and everyone at this Fairfield Inn was truly "consistent", "reliable", and truly "outstanding".
+I am the Global Tour Specialist at QueensLander Tours, based in Denver, Colorado, and I was assigned the task of securing rooms at a hotel for our employees who were flying into Denver to attend our annual meeting.   It was so encouraging to have the General Manager made the booking process "quick and easy", and he, along with his entire staff, went out of their way to made sure our employees' stay was "perfect" in every way.   The hotel AND the service receive an A+ rating!
+I especially want to thank the General Manager, Nick, for all of his assistance both before, during, and even following our stay at this hotel.   In addition, I especially want to commend two of the many outstanding staff members --- Nate and Dakota --- for the wonderful customer service they provided.  
+The rooms at the hotel were always "extra-clean", quiet, and the breakfast choices were both delicious and abundant.  Our company...It is often "challenging" to find a hotel which ends up making everyone in a group "happy", but the Fairfield Inn &amp; Suites Denver Tech Center/South accomplished that "challenging" feat for our company last week.  Our company booked seven (7) rooms for 5 straight nights for our out-of-towns employees who flew in to be a part of our annual meeting, held in our corporate office in Denver.  In short, everything and everyone at this Fairfield Inn was truly "consistent", "reliable", and truly "outstanding".I am the Global Tour Specialist at QueensLander Tours, based in Denver, Colorado, and I was assigned the task of securing rooms at a hotel for our employees who were flying into Denver to attend our annual meeting.   It was so encouraging to have the General Manager made the booking process "quick and easy", and he, along with his entire staff, went out of their way to made sure our employees' stay was "perfect" in every way.   The hotel AND the service receive an A+ rating!I especially want to thank the General Manager, Nick, for all of his assistance both before, during, and even following our stay at this hotel.   In addition, I especially want to commend two of the many outstanding staff members --- Nate and Dakota --- for the wonderful customer service they provided.  The rooms at the hotel were always "extra-clean", quiet, and the breakfast choices were both delicious and abundant.  Our company felt that we received excellent "value" for the beautiful rooms, personal service, and outstanding breakfast offered each day.  It would be our hope that we would be able to secure rooms at this hotel once again for our meeting next year as well.  We could not have been more pleased with this Fairfield Inn, and we wish this service-oriented, excellent hotel the "very best".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r249204362-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>249204362</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel and Conveniently located</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel numerous times in the past 2 years while working in the Highlands Ranch area, usually for 2-3 weeks at a time. In my experience, it is the staff at this hotel that sets it apart. I have always found them to be very friendly and helpful. They go above and beyond to please.  Nice big rooms (mine had a microwave and a small fridge) and I love the Marriott comforters!  It is an older property but the staff works diligently to keep it clean and everything in working order.Close to 470 / I-25/225 inter exchange's.  Nice walking trail nearbyMoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel numerous times in the past 2 years while working in the Highlands Ranch area, usually for 2-3 weeks at a time. In my experience, it is the staff at this hotel that sets it apart. I have always found them to be very friendly and helpful. They go above and beyond to please.  Nice big rooms (mine had a microwave and a small fridge) and I love the Marriott comforters!  It is an older property but the staff works diligently to keep it clean and everything in working order.Close to 470 / I-25/225 inter exchange's.  Nice walking trail nearbyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r241970833-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>241970833</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Worst service</t>
+  </si>
+  <si>
+    <t>Old , outdated, rude nighttime staff,  looks and feels like a truck stop motel 6. I would recommend going elsewhere. The night desk attendant has a smart mouth attitude. Use caution...................I've stayed in tents that had a better atmosphere.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Nick A, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded December 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2014</t>
+  </si>
+  <si>
+    <t>Old , outdated, rude nighttime staff,  looks and feels like a truck stop motel 6. I would recommend going elsewhere. The night desk attendant has a smart mouth attitude. Use caution...................I've stayed in tents that had a better atmosphere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r225568890-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>225568890</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Boom,Boom went the treadmilln!</t>
+  </si>
+  <si>
+    <t>Got a good rate on labor day weekend. The rooms were nice. The beds were very comfortable.Was enjoying a good nights sleep, when at 6:45am we start to hear a loud booming noise. We called the front desk to say " what the heck" turns out that they have a 24 hour fitness center on the other side of the wall. Some one decided to jog on the treadmill very loudly.Shook the head board and many of the pictures on the wall as well. This went on for :45 min &amp; the front desk said there was nothing they could do about it. They say they have a 100% satisfaction or we will make it right.   Well that doesn't apply to us. Tough luck dude!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Nick A, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded September 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2014</t>
+  </si>
+  <si>
+    <t>Got a good rate on labor day weekend. The rooms were nice. The beds were very comfortable.Was enjoying a good nights sleep, when at 6:45am we start to hear a loud booming noise. We called the front desk to say " what the heck" turns out that they have a 24 hour fitness center on the other side of the wall. Some one decided to jog on the treadmill very loudly.Shook the head board and many of the pictures on the wall as well. This went on for :45 min &amp; the front desk said there was nothing they could do about it. They say they have a 100% satisfaction or we will make it right.   Well that doesn't apply to us. Tough luck dude!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r219848863-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>219848863</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Poor Security</t>
+  </si>
+  <si>
+    <t>I checked in after dinner and was given keys to my king suite. I was shocked upon entering the room to find that the room was already in use by another party and several suitcases were placed about the room. I was quite surprised that the Marriott would allow another party to access the room already in use by another party. This could have been extremely embarrassing for me and the other guests and makes me question the security of this hotel.I promptly let the desk attendant know of the situation. It took him about half an hour to resolve this and all the time promised me additional Marriott points for my trouble.Upon checkout, the morning desk attendant also apologized and added a comment that she would make sure I received points for my trouble.Needless to say, the points were never credited to my account. I left a voice mail with the manager (Nick) about this situation along with my contact information. Nick didn't credit the points or even make the courtesy of returning my call. It seems that these were just false promises to appease me while I was on the property, although I was more than nice about the situation.All in all, I was quite displeased with my experience. I expect more from Marriott properties and would not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I checked in after dinner and was given keys to my king suite. I was shocked upon entering the room to find that the room was already in use by another party and several suitcases were placed about the room. I was quite surprised that the Marriott would allow another party to access the room already in use by another party. This could have been extremely embarrassing for me and the other guests and makes me question the security of this hotel.I promptly let the desk attendant know of the situation. It took him about half an hour to resolve this and all the time promised me additional Marriott points for my trouble.Upon checkout, the morning desk attendant also apologized and added a comment that she would make sure I received points for my trouble.Needless to say, the points were never credited to my account. I left a voice mail with the manager (Nick) about this situation along with my contact information. Nick didn't credit the points or even make the courtesy of returning my call. It seems that these were just false promises to appease me while I was on the property, although I was more than nice about the situation.All in all, I was quite displeased with my experience. I expect more from Marriott properties and would not recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r214873697-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>214873697</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Not Marriott Quality</t>
+  </si>
+  <si>
+    <t>Stayed here 3 nights on a leisure trip. Lobby and breakfast area are nice and the free breakfast is great! Waffles, cereal, oatmeal, fruit, eggs and bacon, bagels and pastries just to name some of the options. Our room was just average, the beds are poor for a Marriott, the AC in our first room only worked occasionally, and the elevator went out on our checkout day. Being on the 3rd floor, this was a nuisance. Also, ice machine is only on the first floor, another inconvenience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r210497052-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>210497052</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>This is a great family hotel for a short or extended stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extremely friendly staff and a clean facility. I stay at Marriott properties regularly and this staff is better than many, being very attentive to needs. The facility appears to be an older one but is well kept. The breakfast area is a bit tight but the food is very good. The coffee is great. Room lighting could be better but we had a microwave, a refrigerator, a sofa and plenty of space. We'll definitely stay at this property again when the family is along. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r202161872-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>202161872</t>
+  </si>
+  <si>
+    <t>04/21/2014</t>
+  </si>
+  <si>
+    <t>Great weekend hotel</t>
+  </si>
+  <si>
+    <t>$79 on a Saturday night for a very clean, non smoking, non pet room, what a deal.   Had a nice breakfast in the morning.   Bed was good too.   Will remember to look for business/tech centers to look for weekend rooms.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r200830708-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>200830708</t>
+  </si>
+  <si>
+    <t>04/12/2014</t>
+  </si>
+  <si>
+    <t>service after midnight not the best</t>
+  </si>
+  <si>
+    <t>Usually Marriott Hotels are known for there service, not this one. Also I have worked at hotels even as a night auditor so I am usually patient.First we were coming in late so I called that afternoon to let them know I would be in after midnight. I stroll into town after midnight so I go to check in. Door is locked so I ring the bell, no answer and then I begin to knock on the door. After several minutes I end up calling the hotel from my cell phone. I think I woke the guy up. He then stated," Didn't they tell you I was working alone...". As I have worked myself alone at nights you still need to be courteous and aware if you still have unchecked guests arriving after midnight. I then "received" a key with a comment there is one key. I did not dare ask for another key. The guy then disappeared. The room was fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick A, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Usually Marriott Hotels are known for there service, not this one. Also I have worked at hotels even as a night auditor so I am usually patient.First we were coming in late so I called that afternoon to let them know I would be in after midnight. I stroll into town after midnight so I go to check in. Door is locked so I ring the bell, no answer and then I begin to knock on the door. After several minutes I end up calling the hotel from my cell phone. I think I woke the guy up. He then stated," Didn't they tell you I was working alone...". As I have worked myself alone at nights you still need to be courteous and aware if you still have unchecked guests arriving after midnight. I then "received" a key with a comment there is one key. I did not dare ask for another key. The guy then disappeared. The room was fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r191088477-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>191088477</t>
+  </si>
+  <si>
+    <t>01/16/2014</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, nothing exceptional though</t>
+  </si>
+  <si>
+    <t>Very clean hotel, although slightly dated, and very friendly staff. Enjoyed the complimentary coffee and ice water with orange slices. The room was small and had strange, eerie lighting. It didn't feel comfortable at all. There was no fridge or microwave and the mattress was old and quite uncomfortable. For the price I paid, I wouldn't return. There is another hotel across the parking lot with much better prices, a suite in every room, a kitchenette, more modern, more comfortable, with great beds. I will be switching back to that hotel during my next visit.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r187989010-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>187989010</t>
+  </si>
+  <si>
+    <t>12/18/2013</t>
+  </si>
+  <si>
+    <t>Very Clean, easy location and Starbucks is across the street</t>
+  </si>
+  <si>
+    <t>I have stayed at a couple of the other brands closer to Broadway and County Line and feel that this was the most comfortable. For this trip, it was also the best value (was a little hesitant when i made the booking). Breakfast was what you would expect, staff was friendly and helpful. The carpets were clean and did not look to be worn. If you need to be in this area I think you will find it comfortable as well as affordable.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Nick A, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded December 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at a couple of the other brands closer to Broadway and County Line and feel that this was the most comfortable. For this trip, it was also the best value (was a little hesitant when i made the booking). Breakfast was what you would expect, staff was friendly and helpful. The carpets were clean and did not look to be worn. If you need to be in this area I think you will find it comfortable as well as affordable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r185188629-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>185188629</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>Nice stay but nothing exceptional</t>
+  </si>
+  <si>
+    <t>Stayed here 2 nights with my family of 5. The rate was good, staff was friendly,  location was convenient for dining/shopping. Kids enjoyed the pool both days.  No major issues at any point of our stay. Nice to have free breakfast,  but it was mediocre in quality. The hotel seemed pretty dated although you could tell some areas had been updated fairly recently. My main gripe would be that our mattress was quite old and had become way too soft. I had to use a pillow as a wedge to prevent from caving in to the middle of the bed. All told, it was a very average experience at a reasonable price. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Stayed here 2 nights with my family of 5. The rate was good, staff was friendly,  location was convenient for dining/shopping. Kids enjoyed the pool both days.  No major issues at any point of our stay. Nice to have free breakfast,  but it was mediocre in quality. The hotel seemed pretty dated although you could tell some areas had been updated fairly recently. My main gripe would be that our mattress was quite old and had become way too soft. I had to use a pillow as a wedge to prevent from caving in to the middle of the bed. All told, it was a very average experience at a reasonable price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r168619014-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>168619014</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Comfy</t>
+  </si>
+  <si>
+    <t>Very clean well managed motel. Convenient location, near plenty of shopping and resturants. Queen room small but efficient. Cute, clean indoor pool with outside patio. Excellent free coffee. Very knowledgeable friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Nick A, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded August 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2013</t>
+  </si>
+  <si>
+    <t>Very clean well managed motel. Convenient location, near plenty of shopping and resturants. Queen room small but efficient. Cute, clean indoor pool with outside patio. Excellent free coffee. Very knowledgeable friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r164263934-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>164263934</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Will stay again...</t>
+  </si>
+  <si>
+    <t>We typically choose to stay at Marriott properties and this hotel did not let us down.  It is conveniently located, clean, has a very courteous and helpful staff, and a satisfying complimentary breakfast.  We couldn't ask for much more.MoreShow less</t>
+  </si>
+  <si>
+    <t>We typically choose to stay at Marriott properties and this hotel did not let us down.  It is conveniently located, clean, has a very courteous and helpful staff, and a satisfying complimentary breakfast.  We couldn't ask for much more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r164154735-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>164154735</t>
+  </si>
+  <si>
+    <t>06/16/2013</t>
+  </si>
+  <si>
+    <t>Enjoyed our summer vacation</t>
+  </si>
+  <si>
+    <t>Our family traveled to Denver from South Dakota and stayed here. We really enjoyed it -- centrally located to all of the Denver area attractions. The staff was great -- very friendly. Reasonably priced, great continental breakfast. We really like the noon checkout time. Nice for lazy vacationers like us. Only two minor issues. The tile outside of the swimming area is nice, but very slippery and not practical. The business center also has only one computer -- the other computer station is empty - and the existing computer has Windows XP on it -- slow. It would be nice if there were two computers and not just one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family traveled to Denver from South Dakota and stayed here. We really enjoyed it -- centrally located to all of the Denver area attractions. The staff was great -- very friendly. Reasonably priced, great continental breakfast. We really like the noon checkout time. Nice for lazy vacationers like us. Only two minor issues. The tile outside of the swimming area is nice, but very slippery and not practical. The business center also has only one computer -- the other computer station is empty - and the existing computer has Windows XP on it -- slow. It would be nice if there were two computers and not just one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r152265378-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>152265378</t>
+  </si>
+  <si>
+    <t>02/16/2013</t>
+  </si>
+  <si>
+    <t>It's OK</t>
+  </si>
+  <si>
+    <t>We've stayed here twice.  The hotel staff is very pleasant and helpful, the property looks like your standard Fairfield Inn but a bit old.  We had two rooms each time.  The second time we were there, I thought the towels looked really dingy, the bathroom was tired looking, the sink faucet loose and in both rooms there was no shampoo but two bottles of conditioner (which led to a mad dash mid-shower for some shampoo in the other room).  The breakfast is pretty standard but they're a little slow on the coffee making.  All in all, it's acceptable and inexpensive as hotels go, but the only thing that would bring me back is the convenient location.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>We've stayed here twice.  The hotel staff is very pleasant and helpful, the property looks like your standard Fairfield Inn but a bit old.  We had two rooms each time.  The second time we were there, I thought the towels looked really dingy, the bathroom was tired looking, the sink faucet loose and in both rooms there was no shampoo but two bottles of conditioner (which led to a mad dash mid-shower for some shampoo in the other room).  The breakfast is pretty standard but they're a little slow on the coffee making.  All in all, it's acceptable and inexpensive as hotels go, but the only thing that would bring me back is the convenient location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r150449767-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>150449767</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Good value for good business travel.</t>
+  </si>
+  <si>
+    <t>Stayed in Denver for one night on business in the Tech Center and chose this Fairfield Inn for the value (cost, location, area). My stay was very nice, front desk staff was wonderful (Ashley) and informative. My room was very clean and well appointed for business, internet access worked well and allowed for ease of work. It is close to Park Meadows Mall and several nice dining options around the area, along with convenient access to amenities. Nice place and I will stay there again, when I am in Denver.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r148359209-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>148359209</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>Impressed on so many levels</t>
+  </si>
+  <si>
+    <t>I can't say enough about this hotel.  I travel for work and am used to slightly higher end properties...this hotel held up to all those standards and has excellent rates.  The rooms were clean and remodeled, pool was great and location top notch.  Nick and his team have wonderful customer service too.  The Marriott properties are lucky to have someone like Nick on staff!  This place won't disappoint.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r143530574-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>143530574</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>Expected just the norm</t>
+  </si>
+  <si>
+    <t>Expected just a clean room.  Received so much more - remodeled rooms, bright modern well coordinated colors and extremely clean.  Staff was very friendly and helpful.  Will definitely stay here again on next trip to Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Michael C, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded November 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2012</t>
+  </si>
+  <si>
+    <t>Expected just a clean room.  Received so much more - remodeled rooms, bright modern well coordinated colors and extremely clean.  Staff was very friendly and helpful.  Will definitely stay here again on next trip to Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r141925902-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>141925902</t>
+  </si>
+  <si>
+    <t>10/03/2012</t>
+  </si>
+  <si>
+    <t>You can do better</t>
+  </si>
+  <si>
+    <t>We stayed for three nights.  Summary: You can do better,The positives::  Nick at the front desk was top notch in customer service.  Inn is located near Park Meadows Mall and the IKEA store and close to expressways (except in the Denver metro area the expressways can be parking lots at times).  Fair rate.  Quiet.  Chilled fruit cups in the breakfast room refrigerator. The neutrals:  This Fairfield has an old world (not) charm.  Very small breakfast room.  One waffle iron was partially broken, the breakfast room attendant, who occasionally dropped in, didn't seem to understand English.  The sugar in the sugar bowl for the instant oatmeal was as hard as a brick.The negatives:  Our room, 222, had an unpleasant smell from the bed and the sink drain.   The towels all during our stay, felt damp.Note to those with allergies: Even though the hotel has a clearly stated no pets policy I met one guest who snuck in her fluffy dog Zooey.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>We stayed for three nights.  Summary: You can do better,The positives::  Nick at the front desk was top notch in customer service.  Inn is located near Park Meadows Mall and the IKEA store and close to expressways (except in the Denver metro area the expressways can be parking lots at times).  Fair rate.  Quiet.  Chilled fruit cups in the breakfast room refrigerator. The neutrals:  This Fairfield has an old world (not) charm.  Very small breakfast room.  One waffle iron was partially broken, the breakfast room attendant, who occasionally dropped in, didn't seem to understand English.  The sugar in the sugar bowl for the instant oatmeal was as hard as a brick.The negatives:  Our room, 222, had an unpleasant smell from the bed and the sink drain.   The towels all during our stay, felt damp.Note to those with allergies: Even though the hotel has a clearly stated no pets policy I met one guest who snuck in her fluffy dog Zooey.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r129273644-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>129273644</t>
+  </si>
+  <si>
+    <t>05/02/2012</t>
+  </si>
+  <si>
+    <t>Remodeled; friendly staff</t>
+  </si>
+  <si>
+    <t>Nicely remodeled rooms with modern decor and flat screen TVs. Complimentary breakfast starting at 6:30 AM. Pool and hot tub are both indoors. Complimentary coffee and tea in the lobby 24:7 as well as chilled water with orange slices. Welcome cookies upon arrival. Didn't think the heating/cooling unit was any louder than other hotels. Great location just west of I-25 about a five min drive to Park Meadows Mall and dozens of restaurants, stores, etc. about ten min from closest light rail station. Person at the check in was very friendly. Shampoo, conditioner, and soap provided but no lotion. Rate was a steal for the area: $89 per room per night including the breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael C, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded May 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2012</t>
+  </si>
+  <si>
+    <t>Nicely remodeled rooms with modern decor and flat screen TVs. Complimentary breakfast starting at 6:30 AM. Pool and hot tub are both indoors. Complimentary coffee and tea in the lobby 24:7 as well as chilled water with orange slices. Welcome cookies upon arrival. Didn't think the heating/cooling unit was any louder than other hotels. Great location just west of I-25 about a five min drive to Park Meadows Mall and dozens of restaurants, stores, etc. about ten min from closest light rail station. Person at the check in was very friendly. Shampoo, conditioner, and soap provided but no lotion. Rate was a steal for the area: $89 per room per night including the breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r121625850-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>121625850</t>
+  </si>
+  <si>
+    <t>12/11/2011</t>
+  </si>
+  <si>
+    <t>Spotless</t>
+  </si>
+  <si>
+    <t>Spotless, quiet and comfortable. I arrived late and Tristan at the front desk was excellent. She even had toothpaste samples for my sister! I would absolutely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>ffidenvers, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded December 12, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2011</t>
+  </si>
+  <si>
+    <t>Spotless, quiet and comfortable. I arrived late and Tristan at the front desk was excellent. She even had toothpaste samples for my sister! I would absolutely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r116751205-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>116751205</t>
+  </si>
+  <si>
+    <t>08/15/2011</t>
+  </si>
+  <si>
+    <t>Finally excellent service!</t>
+  </si>
+  <si>
+    <t>We came to Colorado to visit family and started on a terrible note.  Baggage lost, and initial hotel disgusting (hair all over the bed, phone broken, no one at front desk, etc), it was 1:30 a.m. and we were exhausted.  After calling at least 12 other hotels, with either no vacancy or they were unwilling to help, we finally got in contact with the Fairfield Inn.  Their night manager was more than helpful and professional.  The hotel was very clean and modern.  The bed was super comfortable and breakfast was delicious.  The staff, including the daytime manager was out to make sure our stay was the best it could be.  Thank god we found this place so that our trip could be as relaxing as it should be!"MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>ffidenvers, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded August 25, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2011</t>
+  </si>
+  <si>
+    <t>We came to Colorado to visit family and started on a terrible note.  Baggage lost, and initial hotel disgusting (hair all over the bed, phone broken, no one at front desk, etc), it was 1:30 a.m. and we were exhausted.  After calling at least 12 other hotels, with either no vacancy or they were unwilling to help, we finally got in contact with the Fairfield Inn.  Their night manager was more than helpful and professional.  The hotel was very clean and modern.  The bed was super comfortable and breakfast was delicious.  The staff, including the daytime manager was out to make sure our stay was the best it could be.  Thank god we found this place so that our trip could be as relaxing as it should be!"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r115934846-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>115934846</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>We were very impressed with it and we will go back again</t>
+  </si>
+  <si>
+    <t>The service was excellent from the front desk to the ladies who took care of our rooms and the people who worked in the dining room.  The rooms were roomy and nicely decorated and the beds were very comfortable.  The location was great for us as we were there for a wedding and it was not far from the church or from our daughter's home, also shopping areas close by.  The complimentary breakfast was very good.  We did not have anything that bothered us, in fact I left my cell phone charger and the ladies who cleaned the room turned it in to the front desk and they mailed it to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>ffidenvers, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded August 5, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2011</t>
+  </si>
+  <si>
+    <t>The service was excellent from the front desk to the ladies who took care of our rooms and the people who worked in the dining room.  The rooms were roomy and nicely decorated and the beds were very comfortable.  The location was great for us as we were there for a wedding and it was not far from the church or from our daughter's home, also shopping areas close by.  The complimentary breakfast was very good.  We did not have anything that bothered us, in fact I left my cell phone charger and the ladies who cleaned the room turned it in to the front desk and they mailed it to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r67026988-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>67026988</t>
+  </si>
+  <si>
+    <t>06/09/2010</t>
+  </si>
+  <si>
+    <t>Tristan at the front desk helps to make people so welcome, you are lucky to have her.</t>
+  </si>
+  <si>
+    <t>We have stayed at the hotel several times but not for a couple years, it is still very clean and welcoming.  When we asked Tristan for a nice resturent, it was our 56th wedding anniversary, she told us Claim Junpers and looked up the directions.  We had a lovely dinner and enjoyed the evening.  Tristan was always smiling and so nice.  When we checked out the next day the man didn't even look up.  Treat her right you have a gem there.    Mary Ann and Jim MockMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>ffidenvers, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded July 5, 2010</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2010</t>
+  </si>
+  <si>
+    <t>We have stayed at the hotel several times but not for a couple years, it is still very clean and welcoming.  When we asked Tristan for a nice resturent, it was our 56th wedding anniversary, she told us Claim Junpers and looked up the directions.  We had a lovely dinner and enjoyed the evening.  Tristan was always smiling and so nice.  When we checked out the next day the man didn't even look up.  Treat her right you have a gem there.    Mary Ann and Jim MockMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r65424381-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>65424381</t>
+  </si>
+  <si>
+    <t>05/26/2010</t>
+  </si>
+  <si>
+    <t>Highly Recommend- Newly Renovated</t>
+  </si>
+  <si>
+    <t>Stayed at the Fairfield Inn for 5 nights while visiting family in Highlands Ranch             May 19-24, 2010.  The hotel is newly renovated.  We requested one of their larger rooms which had 2 queen beds and a hide-a-bed, mini frig and microwave.  The Queen beds were a bit on the hard side for me but new.  The hide-a-bed was also new and thus was pleasant to sleep on.  The sink is outside of the toilet/bathtub area which makes it nice with 3 females trying to get ready to go :-)The pool needs some face work; pealing on the bottom but didn't stop us from using it.The breakfast is fine; nothing to write home about but won't complain. The rates were very reasonable and the staff were great.  We have stayed here before and would definately stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>Stayed at the Fairfield Inn for 5 nights while visiting family in Highlands Ranch             May 19-24, 2010.  The hotel is newly renovated.  We requested one of their larger rooms which had 2 queen beds and a hide-a-bed, mini frig and microwave.  The Queen beds were a bit on the hard side for me but new.  The hide-a-bed was also new and thus was pleasant to sleep on.  The sink is outside of the toilet/bathtub area which makes it nice with 3 females trying to get ready to go :-)The pool needs some face work; pealing on the bottom but didn't stop us from using it.The breakfast is fine; nothing to write home about but won't complain. The rates were very reasonable and the staff were great.  We have stayed here before and would definately stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r20910347-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>20910347</t>
+  </si>
+  <si>
+    <t>10/15/2008</t>
+  </si>
+  <si>
+    <t>Extremely disappointing and disgusting</t>
+  </si>
+  <si>
+    <t>My family and I stayed here October 11th through the 13th.  I booked this room because we had stayed here last February and had a good experience then.  Unfortunately it was not good this time.  We checked in and arrived in our room but it only had one bed.  There are four of us.  I went back to the desk to let the employee know it would not work.  He quickly moved us.  The next room we moved to reeked of cigarrette smoke.  We are not smokers so this was not ok.  On top of that, the bathroom floor had tons of mildew all over it.  It completely covered the tile around the wall of the floor as well.  We talked to the guy at the front desk about the smoke.  He said he would make a note of it but had no interest in moving us.  We were so tired that we decided to just make the best of it.  It was hard to be in the room or sleep in the room because of the cigarrette smoke.  I did not even want to be barefoot in the bathroom.  We loved our visit in February but this visit was not good.  We won't be back.  As I was checking out on Monday, Samantha asked about our stay.  I told her my complaints.  She was genuinely concerned and was apologectic that we were not moved out of the room.  I...My family and I stayed here October 11th through the 13th.  I booked this room because we had stayed here last February and had a good experience then.  Unfortunately it was not good this time.  We checked in and arrived in our room but it only had one bed.  There are four of us.  I went back to the desk to let the employee know it would not work.  He quickly moved us.  The next room we moved to reeked of cigarrette smoke.  We are not smokers so this was not ok.  On top of that, the bathroom floor had tons of mildew all over it.  It completely covered the tile around the wall of the floor as well.  We talked to the guy at the front desk about the smoke.  He said he would make a note of it but had no interest in moving us.  We were so tired that we decided to just make the best of it.  It was hard to be in the room or sleep in the room because of the cigarrette smoke.  I did not even want to be barefoot in the bathroom.  We loved our visit in February but this visit was not good.  We won't be back.  As I was checking out on Monday, Samantha asked about our stay.  I told her my complaints.  She was genuinely concerned and was apologectic that we were not moved out of the room.  I appreciated her concern but it was to late.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>My family and I stayed here October 11th through the 13th.  I booked this room because we had stayed here last February and had a good experience then.  Unfortunately it was not good this time.  We checked in and arrived in our room but it only had one bed.  There are four of us.  I went back to the desk to let the employee know it would not work.  He quickly moved us.  The next room we moved to reeked of cigarrette smoke.  We are not smokers so this was not ok.  On top of that, the bathroom floor had tons of mildew all over it.  It completely covered the tile around the wall of the floor as well.  We talked to the guy at the front desk about the smoke.  He said he would make a note of it but had no interest in moving us.  We were so tired that we decided to just make the best of it.  It was hard to be in the room or sleep in the room because of the cigarrette smoke.  I did not even want to be barefoot in the bathroom.  We loved our visit in February but this visit was not good.  We won't be back.  As I was checking out on Monday, Samantha asked about our stay.  I told her my complaints.  She was genuinely concerned and was apologectic that we were not moved out of the room.  I...My family and I stayed here October 11th through the 13th.  I booked this room because we had stayed here last February and had a good experience then.  Unfortunately it was not good this time.  We checked in and arrived in our room but it only had one bed.  There are four of us.  I went back to the desk to let the employee know it would not work.  He quickly moved us.  The next room we moved to reeked of cigarrette smoke.  We are not smokers so this was not ok.  On top of that, the bathroom floor had tons of mildew all over it.  It completely covered the tile around the wall of the floor as well.  We talked to the guy at the front desk about the smoke.  He said he would make a note of it but had no interest in moving us.  We were so tired that we decided to just make the best of it.  It was hard to be in the room or sleep in the room because of the cigarrette smoke.  I did not even want to be barefoot in the bathroom.  We loved our visit in February but this visit was not good.  We won't be back.  As I was checking out on Monday, Samantha asked about our stay.  I told her my complaints.  She was genuinely concerned and was apologectic that we were not moved out of the room.  I appreciated her concern but it was to late.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r15531152-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>15531152</t>
+  </si>
+  <si>
+    <t>05/01/2008</t>
+  </si>
+  <si>
+    <t>Everything you expect from Marriott &amp; more!</t>
+  </si>
+  <si>
+    <t>Excellent Hotel!We arrived late after a long haul flight from the UK, it’s about 40mins from DIA but gives you an excellent base to start a road trip west, south or east. The staff were polite, helpful and knowledgeable. The rooms were as you would expect for Marriott (perfect), pool looked inviting and breakfast was the best motel/hotel of our trip (even a waffle machine)!You have shops and Wal-Mart nearby, next to interstate (did not hear any noise) and fairly close to food outlets.All-in-all Perfect place to stay! Worth the money!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r14362504-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>14362504</t>
+  </si>
+  <si>
+    <t>03/18/2008</t>
+  </si>
+  <si>
+    <t>Loved the Staff</t>
+  </si>
+  <si>
+    <t>The hotel staff was phenomenal.  They were always smiling and ready to help.  I loved the breakfast and indoor pool.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r10592042-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>10592042</t>
+  </si>
+  <si>
+    <t>11/04/2007</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>We selected this hotel since it is close to Shea Center. The hotel is really clean and the room was very comfortable. They had free continental breakfast with donuts, toast, waffles, cereal, boiled eggs, egg biscuits and bagels. They had free wireless internet. It was a good value.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1599,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1631,3159 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>133</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>176</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>183</v>
+      </c>
+      <c r="X20" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>183</v>
+      </c>
+      <c r="X21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>215</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" t="s">
+        <v>225</v>
+      </c>
+      <c r="L26" t="s">
+        <v>226</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" t="s">
+        <v>236</v>
+      </c>
+      <c r="L28" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>238</v>
+      </c>
+      <c r="X28" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>242</v>
+      </c>
+      <c r="J29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L29" t="s">
+        <v>245</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>246</v>
+      </c>
+      <c r="O29" t="s">
+        <v>133</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s">
+        <v>251</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>253</v>
+      </c>
+      <c r="X30" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>257</v>
+      </c>
+      <c r="J31" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L31" t="s">
+        <v>260</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>264</v>
+      </c>
+      <c r="J32" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" t="s">
+        <v>266</v>
+      </c>
+      <c r="L32" t="s">
+        <v>267</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>268</v>
+      </c>
+      <c r="O32" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>269</v>
+      </c>
+      <c r="X32" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" t="s">
+        <v>274</v>
+      </c>
+      <c r="K33" t="s">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s">
+        <v>276</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>268</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>269</v>
+      </c>
+      <c r="X33" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" t="s">
+        <v>280</v>
+      </c>
+      <c r="K34" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s">
+        <v>282</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>268</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>269</v>
+      </c>
+      <c r="X34" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" t="s">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s">
+        <v>288</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>289</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>292</v>
+      </c>
+      <c r="J36" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" t="s">
+        <v>295</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>296</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>297</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>298</v>
+      </c>
+      <c r="J37" t="s">
+        <v>299</v>
+      </c>
+      <c r="K37" t="s">
+        <v>300</v>
+      </c>
+      <c r="L37" t="s">
+        <v>301</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>302</v>
+      </c>
+      <c r="O37" t="s">
+        <v>133</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>303</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>304</v>
+      </c>
+      <c r="J38" t="s">
+        <v>305</v>
+      </c>
+      <c r="K38" t="s">
+        <v>306</v>
+      </c>
+      <c r="L38" t="s">
+        <v>307</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>308</v>
+      </c>
+      <c r="O38" t="s">
+        <v>309</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>310</v>
+      </c>
+      <c r="X38" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>314</v>
+      </c>
+      <c r="J39" t="s">
+        <v>315</v>
+      </c>
+      <c r="K39" t="s">
+        <v>316</v>
+      </c>
+      <c r="L39" t="s">
+        <v>317</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>318</v>
+      </c>
+      <c r="O39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>310</v>
+      </c>
+      <c r="X39" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>320</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>321</v>
+      </c>
+      <c r="J40" t="s">
+        <v>322</v>
+      </c>
+      <c r="K40" t="s">
+        <v>323</v>
+      </c>
+      <c r="L40" t="s">
+        <v>324</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>325</v>
+      </c>
+      <c r="X40" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>329</v>
+      </c>
+      <c r="J41" t="s">
+        <v>330</v>
+      </c>
+      <c r="K41" t="s">
+        <v>331</v>
+      </c>
+      <c r="L41" t="s">
+        <v>332</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>333</v>
+      </c>
+      <c r="X41" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>336</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>337</v>
+      </c>
+      <c r="J42" t="s">
+        <v>338</v>
+      </c>
+      <c r="K42" t="s">
+        <v>339</v>
+      </c>
+      <c r="L42" t="s">
+        <v>340</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>341</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>342</v>
+      </c>
+      <c r="X42" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>345</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>346</v>
+      </c>
+      <c r="J43" t="s">
+        <v>347</v>
+      </c>
+      <c r="K43" t="s">
+        <v>348</v>
+      </c>
+      <c r="L43" t="s">
+        <v>349</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>350</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>351</v>
+      </c>
+      <c r="X43" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>355</v>
+      </c>
+      <c r="J44" t="s">
+        <v>356</v>
+      </c>
+      <c r="K44" t="s">
+        <v>357</v>
+      </c>
+      <c r="L44" t="s">
+        <v>358</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>359</v>
+      </c>
+      <c r="O44" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>360</v>
+      </c>
+      <c r="X44" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>363</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>364</v>
+      </c>
+      <c r="J45" t="s">
+        <v>365</v>
+      </c>
+      <c r="K45" t="s">
+        <v>366</v>
+      </c>
+      <c r="L45" t="s">
+        <v>367</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>368</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>360</v>
+      </c>
+      <c r="X45" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>370</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>371</v>
+      </c>
+      <c r="J46" t="s">
+        <v>372</v>
+      </c>
+      <c r="K46" t="s">
+        <v>373</v>
+      </c>
+      <c r="L46" t="s">
+        <v>374</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>375</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>377</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>378</v>
+      </c>
+      <c r="J47" t="s">
+        <v>379</v>
+      </c>
+      <c r="K47" t="s">
+        <v>380</v>
+      </c>
+      <c r="L47" t="s">
+        <v>381</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>382</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>383</v>
+      </c>
+      <c r="J48" t="s">
+        <v>384</v>
+      </c>
+      <c r="K48" t="s">
+        <v>385</v>
+      </c>
+      <c r="L48" t="s">
+        <v>386</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>387</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>388</v>
+      </c>
+      <c r="J49" t="s">
+        <v>389</v>
+      </c>
+      <c r="K49" t="s">
+        <v>390</v>
+      </c>
+      <c r="L49" t="s">
+        <v>391</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_93.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_93.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="626">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,77 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r597767888-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>33471</t>
+  </si>
+  <si>
+    <t>84858</t>
+  </si>
+  <si>
+    <t>597767888</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Worst stay in a long time!!  AWFUL.</t>
+  </si>
+  <si>
+    <t>HOW MANY HOTELS MAKE YOU THE GUEST TAKE THE PLUNGER UP TO YOUR ROOM AND PLUNGE THE TOILET YOURSELF?!?!?!?!?  Also, housekeeper did not make up the room though we were gone all day and we DID NOT leave a do not disturb sign up.  Sound proofing is NONEXISTENT so we had to listen to parties and screaming kids in the parking lot outside our window day and night, and the shrieking kid across the hall for two nights in a row.  Staff was not helpful and showed ZERO initiative to resolve our issues.  I had to ask them to switch our room.  They did not offer to help us move our things.  Neither day or night front desk staff was particularly pleasant.  We have noticed that the last two Fairfields we have stayed at have been subpar.  Not the way you want to finish your vacation.  Do yourself a favor and avoid this chain.  Pictures show what we came back to after a long day and then we had to argue and finally pack everything up and move ourselves.  I will be calling corporate and asking for a refund.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Chris T, Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded July 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2018</t>
+  </si>
+  <si>
+    <t>HOW MANY HOTELS MAKE YOU THE GUEST TAKE THE PLUNGER UP TO YOUR ROOM AND PLUNGE THE TOILET YOURSELF?!?!?!?!?  Also, housekeeper did not make up the room though we were gone all day and we DID NOT leave a do not disturb sign up.  Sound proofing is NONEXISTENT so we had to listen to parties and screaming kids in the parking lot outside our window day and night, and the shrieking kid across the hall for two nights in a row.  Staff was not helpful and showed ZERO initiative to resolve our issues.  I had to ask them to switch our room.  They did not offer to help us move our things.  Neither day or night front desk staff was particularly pleasant.  We have noticed that the last two Fairfields we have stayed at have been subpar.  Not the way you want to finish your vacation.  Do yourself a favor and avoid this chain.  Pictures show what we came back to after a long day and then we had to argue and finally pack everything up and move ourselves.  I will be calling corporate and asking for a refund.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r583498266-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>583498266</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Marriott Does Not Disappoint</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel location for 4 days/3 nights for my niece’s graduation weekend and my husband and I were pleasantly satisfied. Our three children (12, 5, and 14-month-old) were with us, which we had a king size bed and the pull out sofa. The older kids shared the pull out sofa, which they claimed it was okay to sleep on; the king size bed was comfy (although I missed my Sleep Number bed back at home).
+The bathroom was a decent size and really appreciated having a fridge, microwave, and coffee maker in the room. We had two televisions in the room, which helped at times when the kids had downtime to watch a show in the separate room areas, this minimized a bit of fighting (parents out there know what I mean!)
+Complimentary breakfast is great to have. The food was decent and my family were shocked that there were some vegetarian meat options, our family does not eat pork, but just know that it isn’t offered daily. Also bottles water is complimentary, it is nice to have that option.
+Pro: From desk staff we’re friendly, helpful, and professional. Housecleaning staff cleaned the rooms well and stocked the rooms as needed. Complimentary water is available.
+Con: The construction did make the hotel seem a bit off, but everything is clearly marked to communicate this to hotel customers. That can be overlooked, by could be an eye sore for...Stayed at this hotel location for 4 days/3 nights for my niece’s graduation weekend and my husband and I were pleasantly satisfied. Our three children (12, 5, and 14-month-old) were with us, which we had a king size bed and the pull out sofa. The older kids shared the pull out sofa, which they claimed it was okay to sleep on; the king size bed was comfy (although I missed my Sleep Number bed back at home).The bathroom was a decent size and really appreciated having a fridge, microwave, and coffee maker in the room. We had two televisions in the room, which helped at times when the kids had downtime to watch a show in the separate room areas, this minimized a bit of fighting (parents out there know what I mean!)Complimentary breakfast is great to have. The food was decent and my family were shocked that there were some vegetarian meat options, our family does not eat pork, but just know that it isn’t offered daily. Also bottles water is complimentary, it is nice to have that option.Pro: From desk staff we’re friendly, helpful, and professional. Housecleaning staff cleaned the rooms well and stocked the rooms as needed. Complimentary water is available.Con: The construction did make the hotel seem a bit off, but everything is clearly marked to communicate this to hotel customers. That can be overlooked, by could be an eye sore for others.Overall Experience: My husband and I were satisfied and felt ️️️️ (4 stars) was well worth it due to the professionalism shown by the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel location for 4 days/3 nights for my niece’s graduation weekend and my husband and I were pleasantly satisfied. Our three children (12, 5, and 14-month-old) were with us, which we had a king size bed and the pull out sofa. The older kids shared the pull out sofa, which they claimed it was okay to sleep on; the king size bed was comfy (although I missed my Sleep Number bed back at home).
+The bathroom was a decent size and really appreciated having a fridge, microwave, and coffee maker in the room. We had two televisions in the room, which helped at times when the kids had downtime to watch a show in the separate room areas, this minimized a bit of fighting (parents out there know what I mean!)
+Complimentary breakfast is great to have. The food was decent and my family were shocked that there were some vegetarian meat options, our family does not eat pork, but just know that it isn’t offered daily. Also bottles water is complimentary, it is nice to have that option.
+Pro: From desk staff we’re friendly, helpful, and professional. Housecleaning staff cleaned the rooms well and stocked the rooms as needed. Complimentary water is available.
+Con: The construction did make the hotel seem a bit off, but everything is clearly marked to communicate this to hotel customers. That can be overlooked, by could be an eye sore for...Stayed at this hotel location for 4 days/3 nights for my niece’s graduation weekend and my husband and I were pleasantly satisfied. Our three children (12, 5, and 14-month-old) were with us, which we had a king size bed and the pull out sofa. The older kids shared the pull out sofa, which they claimed it was okay to sleep on; the king size bed was comfy (although I missed my Sleep Number bed back at home).The bathroom was a decent size and really appreciated having a fridge, microwave, and coffee maker in the room. We had two televisions in the room, which helped at times when the kids had downtime to watch a show in the separate room areas, this minimized a bit of fighting (parents out there know what I mean!)Complimentary breakfast is great to have. The food was decent and my family were shocked that there were some vegetarian meat options, our family does not eat pork, but just know that it isn’t offered daily. Also bottles water is complimentary, it is nice to have that option.Pro: From desk staff we’re friendly, helpful, and professional. Housecleaning staff cleaned the rooms well and stocked the rooms as needed. Complimentary water is available.Con: The construction did make the hotel seem a bit off, but everything is clearly marked to communicate this to hotel customers. That can be overlooked, by could be an eye sore for others.Overall Experience: My husband and I were satisfied and felt ️️️️ (4 stars) was well worth it due to the professionalism shown by the staff.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r555703957-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
-    <t>33471</t>
-  </si>
-  <si>
-    <t>84858</t>
-  </si>
-  <si>
     <t>555703957</t>
   </si>
   <si>
@@ -201,9 +260,6 @@
     <t xml:space="preserve">We stayed here after coming down the mountains. The beds were so comfortable, which was wonderful after a long cold day in the Colorado Rockies. The room was clean, staff polite, temperature in room easily controlled. My only complaints are coffee in lobby luke warm and hot tub was broken.. All in all great stay. Will stay again. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r548681743-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -225,6 +281,54 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r528396919-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>528396919</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Clean rooms large and spacious. Comfortable beds. Hot tub and ice machine broken but front desk had a bag of ice available. We would definitely stay here again. Great breakfast with waffles, hot oatmeal, cereal, yogurt, Fresh melons, scrambled eggs, omelettes, sausage.Recently remodeled but they need to re-do the doors. The entry door had a 1" gap where it meets the door frame at the bottom. The bathroom door had the same problem and you couldn't close it. We were on the ground floor and could hear the people walking around.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r516692342-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>516692342</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>We spent an overnight here on our way home from traveling.  The front desk clerk was amazing and went above and beyond to ensure we were comfortable, able to use the wifi, had enough towels and had a good night's rest.  The hotel was clean, well stocked and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Justin W, Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded August 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2017</t>
+  </si>
+  <si>
+    <t>We spent an overnight here on our way home from traveling.  The front desk clerk was amazing and went above and beyond to ensure we were comfortable, able to use the wifi, had enough towels and had a good night's rest.  The hotel was clean, well stocked and comfortable.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r510795654-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -240,9 +344,6 @@
     <t>Clean rooms, very comfortable beds, great location but what took this property from four stars to five is their employees!  They really go out of their way to make your stay exceed all expectations! Eugenia at the front desk was very helpful and went above and beyond :-) with all of the hotels in Denver area to choose from Fairfield is an excellent option.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>Justin W, Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded August 14, 2017</t>
   </si>
   <si>
@@ -297,6 +398,51 @@
     <t>Very much enjoyed the stay.  The staff were very accommodating.  They helped us change rooms to avoid a particular situation.  And when we related a problem that we had, requiring an item that needed to be mailed, they were more than gracious in taking care of it for us.  The household staff and engineering were very helpful.  Toilets clogged twice (this seems to be a very common occurrence across all Marriott chains) and they were they to help us with a plunger.  The breakfast area was well stocked each morning, but, why vegey sausage (every day)?  Other items included an egg (scrambled one day, omelet the next), fruit, yogurt choices, juices, coffees, toasts, butters/jams, pastries, and waffles.  Pool and exercise areas are available.  Parking is close to the entrance and around the hotel, the parking seemed to be limited, but, we always found a spot.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r492888828-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>492888828</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>New Room and Great Bed</t>
+  </si>
+  <si>
+    <t>This hotel had been newly renovated because the room still had the new smell.  I am not sure what kind of bed it has but it was terrific!!!  I don't recall staying in any brand hotel with a better bed.  There are several food and beverage offerings nearby so I will be coming back for that but mostly the good night sleep.    MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>This hotel had been newly renovated because the room still had the new smell.  I am not sure what kind of bed it has but it was terrific!!!  I don't recall staying in any brand hotel with a better bed.  There are several food and beverage offerings nearby so I will be coming back for that but mostly the good night sleep.    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r488902427-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>488902427</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Clean, safe, comfortable</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at this Fairfield Inn. The room was clean and quiet, and the beds were comfortable. The complimentary breakfast was well-stocked and tasty. The only downside was that the breakfast area was way too small for the size of the hotel. We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at this Fairfield Inn. The room was clean and quiet, and the beds were comfortable. The complimentary breakfast was well-stocked and tasty. The only downside was that the breakfast area was way too small for the size of the hotel. We would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r446193232-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -370,6 +516,60 @@
   </si>
   <si>
     <t>Close to food, gas, and almost any store you can think of. The staff is very friendly and helpful. The rooms were clean big and comfort. We had 2 other couples hanging out in our room and it was perfect for the games we played. (Bad apples and never have I ever). The view looking out to the freeway was redeemed by all the wildlife move up and down the trails. All in all an amazing trip!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r442747091-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>442747091</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>This location needs some love</t>
+  </si>
+  <si>
+    <t>We have stayed at quite a few Fairfield's over the years and this location needs to have some improvement work done. The upholstery on the chairs in the breakfast area were very worn and torn. The breakfast ok nothing great. The turkey sausage could have doubled as hockey pucks. The room was ok maybe a little dated. Our bed was quite comfortable, however we had a fight with our heat/ac unit. We could not figure out  how to find a good temperate. We walked into the room and it was like an oven. Turned on the ac unit to cool it off but couldn't find a happy medium. I'm not sure I would rush right back to this location. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed at quite a few Fairfield's over the years and this location needs to have some improvement work done. The upholstery on the chairs in the breakfast area were very worn and torn. The breakfast ok nothing great. The turkey sausage could have doubled as hockey pucks. The room was ok maybe a little dated. Our bed was quite comfortable, however we had a fight with our heat/ac unit. We could not figure out  how to find a good temperate. We walked into the room and it was like an oven. Turned on the ac unit to cool it off but couldn't find a happy medium. I'm not sure I would rush right back to this location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r436704801-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>436704801</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>OK for a one-night stay</t>
+  </si>
+  <si>
+    <t>spent one night while passing through the area.  It was convenient to get to, but was so close to the highway I heard traffic most of the night.  It also looked like this was an older property and could use a little facelift and some touch-ups. Many good restaurants nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>spent one night while passing through the area.  It was convenient to get to, but was so close to the highway I heard traffic most of the night.  It also looked like this was an older property and could use a little facelift and some touch-ups. Many good restaurants nearby.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r420796088-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
@@ -391,9 +591,6 @@
 The air conditioning system is a complete joke.  From the smell, long overdue for a clean.  And without a shadow of a doubt the noisiest of any hotel I've stayed in this year (and I've stayed in dozens).  Even set to low, even trying to sleep in the bed furthest away from the unit, it is like trying to sleep next to a leaf blower.  Completely ridiculous.  So you kind...First off, the staff at this hotel were super nice, and were this hotels only redeeming feature.Unfortunately it is down hill from there...The room I was given is one of the worst I have stayed in all year, and I stay in a lot of hotels.  There is a musty smell that tends to happen after a hotel room is years past renovation time.  And the room was clearly designed when the nation still asked if Ross and Rachel were on a break.First off, power outlets are at a premium, and are hidden away behind furniture and in places best not explored in hotel rooms.  Sit down at the 'desk' (table) and trace your fingers along the cord of the lamp and you'll find an off switch.  Keep going and you'll find an outlet that you have to crawl behind the 'desk' to plug in your laptop.  You may as well charge your tablet and phone from the computer, because there's only two free outlets down there.The air conditioning system is a complete joke.  From the smell, long overdue for a clean.  And without a shadow of a doubt the noisiest of any hotel I've stayed in this year (and I've stayed in dozens).  Even set to low, even trying to sleep in the bed furthest away from the unit, it is like trying to sleep next to a leaf blower.  Completely ridiculous.  So you kind of have to try and get the room to the desired temperature, and hope it neither gets too hot or cold in the night.And don't get me wrong, I am not a light sleeper.  I'm not one of those people who has to have silence and pitch black darkness to sleep.  But this was insane.  I did try on the second night to sleep with it on, but I had to throw in the towel, unable to even get to sleep.When I arrived, I noted that there was some residue of excrement in the toilet bowl.  This is highly unusual, as even the worst hotels typically remember to flush.  In fairness, the toilet was broken, so you had to remove the tank lid and slam the lever a few times to get the cistern to fill up.  Because that's what you want to do first thing in the morning.The maids had left me not one, but three large black hairs in the bath tub, which was very kind of them.  I'm more a chocolate on the pillow kind of guy, but hey, what can you do.The bed was small and hard.  But the pillows were okay.I got a room with what they euphemistically call a partial view.  This means that you can't see much of anything, but the window is still situated such that you have to keep the curtains closed at all times, or people can easily see into the room.As I write this, Trip Advisor had some other reviews on my screen which said things like "A good stay" and "A great place to stay..."  I can only assume that the entire rest of the hotel has been remodeled and that I was left with the 1990s theme room.  Because for the life of me, I cannot understand how anyone who has stayed in a hotel since Johnny Carson retired, would be impressed.To add insult to injury the second night of my stay the rate passed $150, which was a compete travesty.  At best this is an $89 hotel, which should NEVER be charging more than $100.I recently stayed in a suite at a J W Marriott in Las Vegas for $126.  It was beautiful, and almost inconveniently large.  I even stayed in a Residence Inn in Los Angeles with a view of the LA skyline for less than $150.With recent memories like that, it is especially galling to pay this kind of money for a tired old hotel in an unremarkable suburb of Denver.This dark, dingy and musty hotel room is too expensive, too small, too disappointing, and only has one redeeming feature, and that is that the staff seem chipper.  Without that, I'd have dropped this to one Trip Advisor green circle.Oh, and even the premium Internet sucks.  I've had better in obscure towns in Mississippi, Tennessee and various other small towns not close to anything.  I can't even imagine how crappy the free Internet is.  Inexcusable at this price point, and being located this close to a major city.After one night, I booked another hotel and told the front desk my travel plans had changed.  I was planning on staying the week, but despite the hassle of packing up my room and leaving, I'm not staying another night in this hotel.  I'd rather pay double and cover the difference out of my own pocket than give a hotel like this another nickel of my money.MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>Management response:Responded September 23, 2016</t>
   </si>
   <si>
@@ -425,9 +622,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r400893441-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -440,6 +634,36 @@
     <t xml:space="preserve">It's pretty dark in the rooms. The place is in need of an update. I asked for upper floor when I made reservations . Got the first floor.  Most of the staff was good. The guy at checkout clearly needed more training as he couldn't figure out how to give me a copy of my bill statement showing what I had been charged/paid. I wouldn't stay there again. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r393159081-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>393159081</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>A great place to stay near home and work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are remodeling our house, so needed an inexpensive hotel near work and home. This facility met all of our needs and was clean and comfortable, as well as convenient to restaurants, C470, and everything else in South Denver. We will recommend this hotel to family and friends for any large gatherings in our area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r390441077-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>390441077</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Great place and convenient!</t>
+  </si>
+  <si>
+    <t>We have stayed here before while visiting daughter in Highlands Ranch.  Very clean, convenient and friendly staff.  Is easy on and off to Interstate I25.  Good restaurants and close to large mall.  We will definitely return to stay at this  convenient location.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r386713621-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -494,6 +718,45 @@
     <t>Room and amenities met my expectations - clean, king size bed, living room, microwave, fridge. I didn't like that the sink was not in the bathroom, but it wasn't a big deal. The location is nice too with restaurants / stores nearby. I love that breakfast was served.Overall I think I got good value with what I paid for.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r343641331-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>343641331</t>
+  </si>
+  <si>
+    <t>01/29/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed reasonable price hotel</t>
+  </si>
+  <si>
+    <t>Good room rates and a great staff. Check-in and welcome was excellent. Room was very comfortable. Not a lot of rooms. We were on 2nd floor. HVAC system good for an in-wall unit. Did hear it come on and off which is so typical of the in-wall units. Room had fridge and free  wi-fi. Breakfast was excellent with a lot of variety. Parking very ample. No local shuttle service. Restaurants not within walking distance.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r333907885-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>333907885</t>
+  </si>
+  <si>
+    <t>12/19/2015</t>
+  </si>
+  <si>
+    <t>Very clean facility but missed the details</t>
+  </si>
+  <si>
+    <t>The hotel is in a decent location and is well maintained.  However, it just wasn't quite as impressive as it could have been.  When you spend as many nights per year in hotels each year as I do, the details to attention mean a lot.  Upon arrival, Platinum level Marriott Rewards members are supposed to receive a welcoming gift.  On the night I arrived I actually looked forward to a small snack and possibly a bottle of water to quench my thirst.  No, there was nothing.  I thought that perhaps they would do a little something the next day while I was out, but they didn't.  It's a little thing but it's the little things that make Marriott my hotel chain of choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>The hotel is in a decent location and is well maintained.  However, it just wasn't quite as impressive as it could have been.  When you spend as many nights per year in hotels each year as I do, the details to attention mean a lot.  Upon arrival, Platinum level Marriott Rewards members are supposed to receive a welcoming gift.  On the night I arrived I actually looked forward to a small snack and possibly a bottle of water to quench my thirst.  No, there was nothing.  I thought that perhaps they would do a little something the next day while I was out, but they didn't.  It's a little thing but it's the little things that make Marriott my hotel chain of choice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r298757858-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -555,6 +818,42 @@
   </si>
   <si>
     <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r283358351-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>283358351</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Location Location Location, but go somewhere else for breakfast</t>
+  </si>
+  <si>
+    <t>I stayed here on business for an evening.  I chose the hotel because it had the best price of the brands that I stay at regularly when traveling for work.  The location is easy to get to, and offers plenty of access to food and entertainment venues.The facility is clean and well maintained.  The staff were all very friendly.  I used online check-in with the Marriott app, which made the process very fast and efficient.The room was comfortable.The only issue that I had during my stay was with the breakfast.  The eggs had been allowed to cook together into a big chunk and then broken apart into smaller chunks.  There were also burned spots on the top surface from being in the oven, as well as being very dry.  The breakfast meat was either unheated, or overheated to the point that it was shrunk up and tough.  I recommend this facility to stay at, but it's probably worth considering eating breakfast somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I stayed here on business for an evening.  I chose the hotel because it had the best price of the brands that I stay at regularly when traveling for work.  The location is easy to get to, and offers plenty of access to food and entertainment venues.The facility is clean and well maintained.  The staff were all very friendly.  I used online check-in with the Marriott app, which made the process very fast and efficient.The room was comfortable.The only issue that I had during my stay was with the breakfast.  The eggs had been allowed to cook together into a big chunk and then broken apart into smaller chunks.  There were also burned spots on the top surface from being in the oven, as well as being very dry.  The breakfast meat was either unheated, or overheated to the point that it was shrunk up and tough.  I recommend this facility to stay at, but it's probably worth considering eating breakfast somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r273752975-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>273752975</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice </t>
+  </si>
+  <si>
+    <t>Rooms are clean and average size. Maid service is prompt and efficient. Front staff is courteous and helpful. Breakfast is plentiful, the only lacking comment is the powered eggs. Come on guys! don't offer eggs as your hot food item if it's powered. No one likes powered eggs</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r253963276-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
@@ -635,6 +934,51 @@
     <t>Old , outdated, rude nighttime staff,  looks and feels like a truck stop motel 6. I would recommend going elsewhere. The night desk attendant has a smart mouth attitude. Use caution...................I've stayed in tents that had a better atmosphere.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r241907516-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>241907516</t>
+  </si>
+  <si>
+    <t>11/28/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What you pay is what you get.  </t>
+  </si>
+  <si>
+    <t>We stayed here last week because we over stayed in Denver.  We have stayed before with no issues but this stay was a bit disappointing. The room was clean but it was next to the pool and the chlorine smell leaked into the room. The room was also had a lot of road noise which normally I would leave the fan running but the AC  unit wouldn't  stay running.  The last thing that kept me up was the toilet kept leaking and filling up the tank. In the morning trying to take a hot shower was impossible as the water temperature would change.  I really like this hotel but the years has taken its toll on the infrastructure.  One last thing. Don't park under the trees in front.  It will mess up your car. Yuck.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Nick A, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here last week because we over stayed in Denver.  We have stayed before with no issues but this stay was a bit disappointing. The room was clean but it was next to the pool and the chlorine smell leaked into the room. The room was also had a lot of road noise which normally I would leave the fan running but the AC  unit wouldn't  stay running.  The last thing that kept me up was the toilet kept leaking and filling up the tank. In the morning trying to take a hot shower was impossible as the water temperature would change.  I really like this hotel but the years has taken its toll on the infrastructure.  One last thing. Don't park under the trees in front.  It will mess up your car. Yuck.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r231730543-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>231730543</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Clean,tidy,friendly staff &amp; good variety for breakfast.Stayed 1 night while in Denver. When we come back to area would stay here again.Only slight down side is better signage from road especially at night if you don,t know the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Clean,tidy,friendly staff &amp; good variety for breakfast.Stayed 1 night while in Denver. When we come back to area would stay here again.Only slight down side is better signage from road especially at night if you don,t know the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r225568890-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -698,6 +1042,39 @@
     <t>Stayed here 3 nights on a leisure trip. Lobby and breakfast area are nice and the free breakfast is great! Waffles, cereal, oatmeal, fruit, eggs and bacon, bagels and pastries just to name some of the options. Our room was just average, the beds are poor for a Marriott, the AC in our first room only worked occasionally, and the elevator went out on our checkout day. Being on the 3rd floor, this was a nuisance. Also, ice machine is only on the first floor, another inconvenience.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r212310611-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>212310611</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Best Staff!</t>
+  </si>
+  <si>
+    <t>The service at this place was amazing! The breakfast attendant, Joel, even wore gloves! It felt like the staff was one big happy family. Even the housekeepers that spoke mostly spanish still took the time to greet me in the hallways and elevator. I didn't even care that the jacuzzi was broke. I just took a hot bath in my room since the tub was so clean. This was the best stay I've had in a long time, if there were microwaves I would want live there!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r212090443-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>212090443</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>Average, with a few perks.</t>
+  </si>
+  <si>
+    <t>We stayed here while in the area for a friend's wedding.   It was a standard Fairfield Inn, no big surprises -- the free breakfast, while not delicious, is... well.. free.   The staff is friendly and accommodating.   There is an indoor pool with hot tub/spa, which is great.   Our kids LOVED that there are wild bunny rabbits living in &amp; around the parking lot!   :)</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r210497052-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -755,6 +1132,45 @@
     <t>Usually Marriott Hotels are known for there service, not this one. Also I have worked at hotels even as a night auditor so I am usually patient.First we were coming in late so I called that afternoon to let them know I would be in after midnight. I stroll into town after midnight so I go to check in. Door is locked so I ring the bell, no answer and then I begin to knock on the door. After several minutes I end up calling the hotel from my cell phone. I think I woke the guy up. He then stated," Didn't they tell you I was working alone...". As I have worked myself alone at nights you still need to be courteous and aware if you still have unchecked guests arriving after midnight. I then "received" a key with a comment there is one key. I did not dare ask for another key. The guy then disappeared. The room was fine.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r195437861-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>195437861</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>We have not stayed at Fairfield Inn in over five years as they hadn't been as clean and friendly as they had been. On this stay though the we thought the rate per night was worth giving them another try. We were NOT disappointed. The hotel staff was very friendly and the hotel was sooo clean. Our room was cleaned well everyday and the bathroom was as clean as mine at home, big plus. Breakfast was a good variety. Loved that they had peach yogurt. Not many hotels do and I'm allergic to strawberries and blueberries so finding peach made me very happy. Also breakfast area was kept well stocked and very clean as well. We will for sure stay here again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>We have not stayed at Fairfield Inn in over five years as they hadn't been as clean and friendly as they had been. On this stay though the we thought the rate per night was worth giving them another try. We were NOT disappointed. The hotel staff was very friendly and the hotel was sooo clean. Our room was cleaned well everyday and the bathroom was as clean as mine at home, big plus. Breakfast was a good variety. Loved that they had peach yogurt. Not many hotels do and I'm allergic to strawberries and blueberries so finding peach made me very happy. Also breakfast area was kept well stocked and very clean as well. We will for sure stay here again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r192711919-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>192711919</t>
+  </si>
+  <si>
+    <t>01/31/2014</t>
+  </si>
+  <si>
+    <t>Like a brand new Fairfield</t>
+  </si>
+  <si>
+    <t>This fairfield in Denver is awesome. I wish I could have met the manager to tell him what a nice hotel he has. I was here on business and they got me a room here. I was so happy they didnt book me across the way. This hotel looked brand new with clean facilities. Staff was helpful and the room was immaculate. I would stay here again and again.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r191088477-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -821,6 +1237,60 @@
     <t>Stayed here 2 nights with my family of 5. The rate was good, staff was friendly,  location was convenient for dining/shopping. Kids enjoyed the pool both days.  No major issues at any point of our stay. Nice to have free breakfast,  but it was mediocre in quality. The hotel seemed pretty dated although you could tell some areas had been updated fairly recently. My main gripe would be that our mattress was quite old and had become way too soft. I had to use a pillow as a wedge to prevent from caving in to the middle of the bed. All told, it was a very average experience at a reasonable price. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r178925472-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>178925472</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>Good deal room</t>
+  </si>
+  <si>
+    <t>A member of the Marriott chain and lives up to its' name. A little older but clean and rooms are fair sized and include usual refrigerator and microwave. We had a room with 2 queens and had a couch desk.Breakfast was adequate with eggs, bacon, waffle maker and all the other items including cereal. Hotel is VERY difficult to find because mapquest and other sites do not adequately describe its exact physical location.The address is on a main east west street but it is actually located behind a strip center and one has to turn off onto a side street for a few hundred feet - then turn right and find the complex. Due to hills in area it is NOT visible from the mainstreet - we went back and forth on the main street twice - called the front desk and told us where to turn into place.Front desk say they have contacted online map sites to add information but have been unsuccessful.I would definitely stay there again - reasonable priced as well.Nice that it is in a business area so didn't have a lot of families with kids running around.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Nick A, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded October 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2013</t>
+  </si>
+  <si>
+    <t>A member of the Marriott chain and lives up to its' name. A little older but clean and rooms are fair sized and include usual refrigerator and microwave. We had a room with 2 queens and had a couch desk.Breakfast was adequate with eggs, bacon, waffle maker and all the other items including cereal. Hotel is VERY difficult to find because mapquest and other sites do not adequately describe its exact physical location.The address is on a main east west street but it is actually located behind a strip center and one has to turn off onto a side street for a few hundred feet - then turn right and find the complex. Due to hills in area it is NOT visible from the mainstreet - we went back and forth on the main street twice - called the front desk and told us where to turn into place.Front desk say they have contacted online map sites to add information but have been unsuccessful.I would definitely stay there again - reasonable priced as well.Nice that it is in a business area so didn't have a lot of families with kids running around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r172783516-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>172783516</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>Tops in Service</t>
+  </si>
+  <si>
+    <t>Excellent hotel, all around. We arrived early and were allowed to check in. Discovered the refrigerator was not working, and when we off to the Solheim Cup the next morning came back to  a NEW fridge, Very clean, excellent maid service and continental breakfast, very friendly front desk staff. Only negative - NO Golf Channel to watch :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Nick A, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded October 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2013</t>
+  </si>
+  <si>
+    <t>Excellent hotel, all around. We arrived early and were allowed to check in. Discovered the refrigerator was not working, and when we off to the Solheim Cup the next morning came back to  a NEW fridge, Very clean, excellent maid service and continental breakfast, very friendly front desk staff. Only negative - NO Golf Channel to watch :-)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r168619014-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -884,6 +1354,44 @@
     <t>Our family traveled to Denver from South Dakota and stayed here. We really enjoyed it -- centrally located to all of the Denver area attractions. The staff was great -- very friendly. Reasonably priced, great continental breakfast. We really like the noon checkout time. Nice for lazy vacationers like us. Only two minor issues. The tile outside of the swimming area is nice, but very slippery and not practical. The business center also has only one computer -- the other computer station is empty - and the existing computer has Windows XP on it -- slow. It would be nice if there were two computers and not just one.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r162733607-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>162733607</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>Very Pleased</t>
+  </si>
+  <si>
+    <t>The hotel is located near several restaurants and shopping.  The room was very clean and updated.  The internet access and desk in the room were definitely nice to have.  The breakfast was more than what you'd expect.  All in all I was very pleased.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r162484308-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>162484308</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>Stayed at the wrong time</t>
+  </si>
+  <si>
+    <t>I try to stay at a Marriott property whenever possible so the Fairfield made sense for a one night business trip.  I recently was in an accident that has caused me to walk with a cane due to pain in my leg.  It is not permanent so I do not use handicapped parking.  Imagine my dismay when I pulled up to the property and discovered that half the parking was closed for restriping.  This included the main entrance,  The only way to park and gain entry to the hotel was to go the wrong way down an alley marked one-way and then enter thru the pool area.  The only signs posted was the closed signs and the cones to deny entrance.  Once you found your way to the back ( I luckily found one of the few spots left) you had to stumble around until you found the entrance.  Some guidance would have been greatly appreciated. I understand maintenance has to be performed but it would have been nice to be notified prior to my arrival. I am a member of Marriott Rewards so it would have been an easy thing to do.
+I gave this property a 4 out of 5 due to the staff.  The young lady at the front desk was outstanding.  The one taking care of the breakfast area was friendly and helpful although several of us there were trying to find the remote to change...I try to stay at a Marriott property whenever possible so the Fairfield made sense for a one night business trip.  I recently was in an accident that has caused me to walk with a cane due to pain in my leg.  It is not permanent so I do not use handicapped parking.  Imagine my dismay when I pulled up to the property and discovered that half the parking was closed for restriping.  This included the main entrance,  The only way to park and gain entry to the hotel was to go the wrong way down an alley marked one-way and then enter thru the pool area.  The only signs posted was the closed signs and the cones to deny entrance.  Once you found your way to the back ( I luckily found one of the few spots left) you had to stumble around until you found the entrance.  Some guidance would have been greatly appreciated. I understand maintenance has to be performed but it would have been nice to be notified prior to my arrival. I am a member of Marriott Rewards so it would have been an easy thing to do.I gave this property a 4 out of 5 due to the staff.  The young lady at the front desk was outstanding.  The one taking care of the breakfast area was friendly and helpful although several of us there were trying to find the remote to change the channel on the tv there. It seemed to be permanently anchored to the 700 Club which was running a telethon to raise money.MoreShow less</t>
+  </si>
+  <si>
+    <t>I try to stay at a Marriott property whenever possible so the Fairfield made sense for a one night business trip.  I recently was in an accident that has caused me to walk with a cane due to pain in my leg.  It is not permanent so I do not use handicapped parking.  Imagine my dismay when I pulled up to the property and discovered that half the parking was closed for restriping.  This included the main entrance,  The only way to park and gain entry to the hotel was to go the wrong way down an alley marked one-way and then enter thru the pool area.  The only signs posted was the closed signs and the cones to deny entrance.  Once you found your way to the back ( I luckily found one of the few spots left) you had to stumble around until you found the entrance.  Some guidance would have been greatly appreciated. I understand maintenance has to be performed but it would have been nice to be notified prior to my arrival. I am a member of Marriott Rewards so it would have been an easy thing to do.
+I gave this property a 4 out of 5 due to the staff.  The young lady at the front desk was outstanding.  The one taking care of the breakfast area was friendly and helpful although several of us there were trying to find the remote to change...I try to stay at a Marriott property whenever possible so the Fairfield made sense for a one night business trip.  I recently was in an accident that has caused me to walk with a cane due to pain in my leg.  It is not permanent so I do not use handicapped parking.  Imagine my dismay when I pulled up to the property and discovered that half the parking was closed for restriping.  This included the main entrance,  The only way to park and gain entry to the hotel was to go the wrong way down an alley marked one-way and then enter thru the pool area.  The only signs posted was the closed signs and the cones to deny entrance.  Once you found your way to the back ( I luckily found one of the few spots left) you had to stumble around until you found the entrance.  Some guidance would have been greatly appreciated. I understand maintenance has to be performed but it would have been nice to be notified prior to my arrival. I am a member of Marriott Rewards so it would have been an easy thing to do.I gave this property a 4 out of 5 due to the staff.  The young lady at the front desk was outstanding.  The one taking care of the breakfast area was friendly and helpful although several of us there were trying to find the remote to change the channel on the tv there. It seemed to be permanently anchored to the 700 Club which was running a telethon to raise money.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r152265378-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -899,9 +1407,6 @@
     <t>We've stayed here twice.  The hotel staff is very pleasant and helpful, the property looks like your standard Fairfield Inn but a bit old.  We had two rooms each time.  The second time we were there, I thought the towels looked really dingy, the bathroom was tired looking, the sink faucet loose and in both rooms there was no shampoo but two bottles of conditioner (which led to a mad dash mid-shower for some shampoo in the other room).  The breakfast is pretty standard but they're a little slow on the coffee making.  All in all, it's acceptable and inexpensive as hotels go, but the only thing that would bring me back is the convenient location.MoreShow less</t>
   </si>
   <si>
-    <t>February 2013</t>
-  </si>
-  <si>
     <t>We've stayed here twice.  The hotel staff is very pleasant and helpful, the property looks like your standard Fairfield Inn but a bit old.  We had two rooms each time.  The second time we were there, I thought the towels looked really dingy, the bathroom was tired looking, the sink faucet loose and in both rooms there was no shampoo but two bottles of conditioner (which led to a mad dash mid-shower for some shampoo in the other room).  The breakfast is pretty standard but they're a little slow on the coffee making.  All in all, it's acceptable and inexpensive as hotels go, but the only thing that would bring me back is the convenient location.More</t>
   </si>
   <si>
@@ -941,6 +1446,48 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r148218620-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>148218620</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>Great accomodations!!!</t>
+  </si>
+  <si>
+    <t>Friendly-helpful staff and a perfect all you need breakfast (hot/cold) included.  We've been staying here for the past few years and it's always consistant and wonderfully newly remodeled.  We enjoy the pool and hot tub also.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r144071246-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>144071246</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>Fairfield Inns has surprised</t>
+  </si>
+  <si>
+    <t>This is our third stay at a Fairfield Inn in a row. We have picked them just on the fact they had the location we needed and the price was in line with most everyone else. We have really liked all three hotels including this one. The rooms are nice, clean, roomy. The pool and spa area was well maintained and clean, traveling with kids we always use the pool. The breakfast is basic hotel stuff but was fresh, clean, well stocked. The best thing about Fairfield Inns is the customer service has been outstanding at all three hotels. They have provided for all our needs and questions. They seem to be very nice hotels when traveling as a family. We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Michael C, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded November 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2012</t>
+  </si>
+  <si>
+    <t>This is our third stay at a Fairfield Inn in a row. We have picked them just on the fact they had the location we needed and the price was in line with most everyone else. We have really liked all three hotels including this one. The rooms are nice, clean, roomy. The pool and spa area was well maintained and clean, traveling with kids we always use the pool. The breakfast is basic hotel stuff but was fresh, clean, well stocked. The best thing about Fairfield Inns is the customer service has been outstanding at all three hotels. They have provided for all our needs and questions. They seem to be very nice hotels when traveling as a family. We would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r143530574-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -956,18 +1503,6 @@
     <t>Expected just a clean room.  Received so much more - remodeled rooms, bright modern well coordinated colors and extremely clean.  Staff was very friendly and helpful.  Will definitely stay here again on next trip to Denver.MoreShow less</t>
   </si>
   <si>
-    <t>October 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>Michael C, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded November 5, 2012</t>
-  </si>
-  <si>
-    <t>Responded November 5, 2012</t>
-  </si>
-  <si>
     <t>Expected just a clean room.  Received so much more - remodeled rooms, bright modern well coordinated colors and extremely clean.  Staff was very friendly and helpful.  Will definitely stay here again on next trip to Denver.More</t>
   </si>
   <si>
@@ -1016,6 +1551,60 @@
     <t>Nicely remodeled rooms with modern decor and flat screen TVs. Complimentary breakfast starting at 6:30 AM. Pool and hot tub are both indoors. Complimentary coffee and tea in the lobby 24:7 as well as chilled water with orange slices. Welcome cookies upon arrival. Didn't think the heating/cooling unit was any louder than other hotels. Great location just west of I-25 about a five min drive to Park Meadows Mall and dozens of restaurants, stores, etc. about ten min from closest light rail station. Person at the check in was very friendly. Shampoo, conditioner, and soap provided but no lotion. Rate was a steal for the area: $89 per room per night including the breakfast.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r128168678-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>128168678</t>
+  </si>
+  <si>
+    <t>04/19/2012</t>
+  </si>
+  <si>
+    <t>Fairfield Inn Denver Tech Center</t>
+  </si>
+  <si>
+    <t>Initial reaction for this hotel was positive.  The staff was helpful, my room was upgraded and very large, and the internet worked well.  Downside was that the heating/air conditioning unit was very loud, even when turned completely off.  In the morning water in the pipes next door could be heard very clearly.  This could have been just my room, but not sure.  Breakfast was so-so, no warm offerings other than waffles.  As there are several other options in Denver, I will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Michael C, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded May 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2012</t>
+  </si>
+  <si>
+    <t>Initial reaction for this hotel was positive.  The staff was helpful, my room was upgraded and very large, and the internet worked well.  Downside was that the heating/air conditioning unit was very loud, even when turned completely off.  In the morning water in the pipes next door could be heard very clearly.  This could have been just my room, but not sure.  Breakfast was so-so, no warm offerings other than waffles.  As there are several other options in Denver, I will not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r124315039-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>124315039</t>
+  </si>
+  <si>
+    <t>02/08/2012</t>
+  </si>
+  <si>
+    <t>Great stay at this newly renovated hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this Fairfield Inn in February, 2012. Cannot say enough good things about it. This is a very nice hotel with a terrific staff. They seem to pride themselves with a lot of attention to details throughout. We arrived at the peak of a huge Denver snowstorm and felt like we were at an oasis. It was even our pleasure to receive a short tour of the common areas at the hotel from Tristen. We travel at least 60 days per year and look forward to our next stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>ffidenvers, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded March 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2012</t>
+  </si>
+  <si>
+    <t>We stayed at this Fairfield Inn in February, 2012. Cannot say enough good things about it. This is a very nice hotel with a terrific staff. They seem to pride themselves with a lot of attention to details throughout. We arrived at the peak of a huge Denver snowstorm and felt like we were at an oasis. It was even our pleasure to receive a short tour of the common areas at the hotel from Tristen. We travel at least 60 days per year and look forward to our next stay here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r121625850-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -1094,6 +1683,60 @@
     <t>The service was excellent from the front desk to the ladies who took care of our rooms and the people who worked in the dining room.  The rooms were roomy and nicely decorated and the beds were very comfortable.  The location was great for us as we were there for a wedding and it was not far from the church or from our daughter's home, also shopping areas close by.  The complimentary breakfast was very good.  We did not have anything that bothered us, in fact I left my cell phone charger and the ladies who cleaned the room turned it in to the front desk and they mailed it to me.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r80474930-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>80474930</t>
+  </si>
+  <si>
+    <t>09/21/2010</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>I have to say that I stayed at the hotel because of the good reviews. But I was disappointed. Check-in was ok but nothing special. I'm a silver at Marriotts reward program and they didn't recognize it. They had renovations going on the hotel. When I walked up to my room there were construction papers hanging on the door. I called the front desk and they told me to just ignore it. Room was nothing special. Could't use the pool because it was closed. Location was great but I don't know if I'd stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>ffidenvers, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded September 24, 2010</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2010</t>
+  </si>
+  <si>
+    <t>I have to say that I stayed at the hotel because of the good reviews. But I was disappointed. Check-in was ok but nothing special. I'm a silver at Marriotts reward program and they didn't recognize it. They had renovations going on the hotel. When I walked up to my room there were construction papers hanging on the door. I called the front desk and they told me to just ignore it. Room was nothing special. Could't use the pool because it was closed. Location was great but I don't know if I'd stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r71538679-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>71538679</t>
+  </si>
+  <si>
+    <t>07/19/2010</t>
+  </si>
+  <si>
+    <t>Best of South Denver</t>
+  </si>
+  <si>
+    <t>Located along C-470 on the south side of Denver. If you are on your way west or east, this is the place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>ffidenvers, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded July 21, 2010</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2010</t>
+  </si>
+  <si>
+    <t>Located along C-470 on the south side of Denver. If you are on your way west or east, this is the place to stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r67026988-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -1109,9 +1752,6 @@
     <t>We have stayed at the hotel several times but not for a couple years, it is still very clean and welcoming.  When we asked Tristan for a nice resturent, it was our 56th wedding anniversary, she told us Claim Junpers and looked up the directions.  We had a lovely dinner and enjoyed the evening.  Tristan was always smiling and so nice.  When we checked out the next day the man didn't even look up.  Treat her right you have a gem there.    Mary Ann and Jim MockMoreShow less</t>
   </si>
   <si>
-    <t>June 2010</t>
-  </si>
-  <si>
     <t>ffidenvers, General Manager at Fairfield Inn &amp; Suites Denver Tech Center/South, responded to this reviewResponded July 5, 2010</t>
   </si>
   <si>
@@ -1163,6 +1803,45 @@
     <t>My family and I stayed here October 11th through the 13th.  I booked this room because we had stayed here last February and had a good experience then.  Unfortunately it was not good this time.  We checked in and arrived in our room but it only had one bed.  There are four of us.  I went back to the desk to let the employee know it would not work.  He quickly moved us.  The next room we moved to reeked of cigarrette smoke.  We are not smokers so this was not ok.  On top of that, the bathroom floor had tons of mildew all over it.  It completely covered the tile around the wall of the floor as well.  We talked to the guy at the front desk about the smoke.  He said he would make a note of it but had no interest in moving us.  We were so tired that we decided to just make the best of it.  It was hard to be in the room or sleep in the room because of the cigarrette smoke.  I did not even want to be barefoot in the bathroom.  We loved our visit in February but this visit was not good.  We won't be back.  As I was checking out on Monday, Samantha asked about our stay.  I told her my complaints.  She was genuinely concerned and was apologectic that we were not moved out of the room.  I...My family and I stayed here October 11th through the 13th.  I booked this room because we had stayed here last February and had a good experience then.  Unfortunately it was not good this time.  We checked in and arrived in our room but it only had one bed.  There are four of us.  I went back to the desk to let the employee know it would not work.  He quickly moved us.  The next room we moved to reeked of cigarrette smoke.  We are not smokers so this was not ok.  On top of that, the bathroom floor had tons of mildew all over it.  It completely covered the tile around the wall of the floor as well.  We talked to the guy at the front desk about the smoke.  He said he would make a note of it but had no interest in moving us.  We were so tired that we decided to just make the best of it.  It was hard to be in the room or sleep in the room because of the cigarrette smoke.  I did not even want to be barefoot in the bathroom.  We loved our visit in February but this visit was not good.  We won't be back.  As I was checking out on Monday, Samantha asked about our stay.  I told her my complaints.  She was genuinely concerned and was apologectic that we were not moved out of the room.  I appreciated her concern but it was to late.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r19226654-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>19226654</t>
+  </si>
+  <si>
+    <t>08/22/2008</t>
+  </si>
+  <si>
+    <t>Great stay, definitely recommend this Fairfield location.</t>
+  </si>
+  <si>
+    <t>Since we planned a 5-night stay, we did a lot of research on accommodations and decided on this Fairfield Inn. It turned out to be a  great choice. The hotel is clean and nicely kept, the staff friendly and helpful, and our room was clean, comfortable, spacious, and quiet. The hotel's location is convenient to shopping, dining, and the main highway (C-470) that traverses the southern edge of metro Denver. The daily Continental breakfast features many choices and saved us about $60 since we ate there four times during our stay. If you like waffles, be aware the waffle iron is on the opposite side of the room from all the other food. We missed it the first day. One minor issue was that the fridge in our room was so loud we ended up unplugging it (it was empty anyway). We advised the hotel at checkout so they could look into the problem. The hotel is off the roadway behind another business and oddly, there's no roadside sign for it or for the other hotel next door. You'll need to look for the building itself on the south side of E. County Line Road just west of Quebec St.Based on our stay, we highly recommend this Fairfield.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>Since we planned a 5-night stay, we did a lot of research on accommodations and decided on this Fairfield Inn. It turned out to be a  great choice. The hotel is clean and nicely kept, the staff friendly and helpful, and our room was clean, comfortable, spacious, and quiet. The hotel's location is convenient to shopping, dining, and the main highway (C-470) that traverses the southern edge of metro Denver. The daily Continental breakfast features many choices and saved us about $60 since we ate there four times during our stay. If you like waffles, be aware the waffle iron is on the opposite side of the room from all the other food. We missed it the first day. One minor issue was that the fridge in our room was so loud we ended up unplugging it (it was empty anyway). We advised the hotel at checkout so they could look into the problem. The hotel is off the roadway behind another business and oddly, there's no roadside sign for it or for the other hotel next door. You'll need to look for the building itself on the south side of E. County Line Road just west of Quebec St.Based on our stay, we highly recommend this Fairfield.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r17403180-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>17403180</t>
+  </si>
+  <si>
+    <t>07/01/2008</t>
+  </si>
+  <si>
+    <t>Staff Service was Awesome</t>
+  </si>
+  <si>
+    <t>The hotel staff was awesome, catering to our every need. We enjoyed the 24-hour coffee station and indoor pool.  Our only complaint is the age of the hotel is starting to be seen in various areas.  We loved the super friendly staff which made our stay very enjoyable!!</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r15531152-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
   </si>
   <si>
@@ -1206,6 +1885,39 @@
   </si>
   <si>
     <t>We selected this hotel since it is close to Shea Center. The hotel is really clean and the room was very comfortable. They had free continental breakfast with donuts, toast, waffles, cereal, boiled eggs, egg biscuits and bagels. They had free wireless internet. It was a good value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r5702554-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>5702554</t>
+  </si>
+  <si>
+    <t>08/22/2006</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>We spent one night here. The room was nice and very comfortable. The staff was helpful and courteous. The bed comfy. A bit pricey for what you get, but I find Denver is that way! I would stay here again without hesitation.</t>
+  </si>
+  <si>
+    <t>August 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33471-d84858-r2603570-Fairfield_Inn_Suites_Denver_Tech_Center_South-Highlands_Ranch_Colorado.html</t>
+  </si>
+  <si>
+    <t>2603570</t>
+  </si>
+  <si>
+    <t>09/26/2004</t>
+  </si>
+  <si>
+    <t>Decent - 2.5 - 3 star</t>
+  </si>
+  <si>
+    <t>I stayed here on business. The location is great, right near some great shopping and the main highways. The hotel itself is pretty motel-like. It's clean and nice, but if you're expecting fancy, try some place else. Free coffee all day and night and a free breakfast. Those are the reasons for staying but the place feels like a Motel 6.</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +2452,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1801,13 +2513,13 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1821,7 +2533,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1837,7 +2549,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1846,43 +2558,43 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -1898,7 +2610,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1907,47 +2619,37 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>75</v>
-      </c>
-      <c r="X5" t="s">
-        <v>76</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
         <v>77</v>
       </c>
@@ -1989,28 +2691,28 @@
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" t="s">
-        <v>84</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -2026,58 +2728,48 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>88</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
         <v>91</v>
-      </c>
-      <c r="O7" t="s">
-        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>83</v>
-      </c>
-      <c r="X7" t="s">
-        <v>84</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -2093,52 +2785,58 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
         <v>93</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>98</v>
-      </c>
       <c r="O8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
         <v>99</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>100</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -2154,58 +2852,58 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
         <v>102</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>103</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>104</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>105</v>
       </c>
-      <c r="L9" t="s">
-        <v>106</v>
-      </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
         <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
         <v>107</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>108</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -2221,34 +2919,34 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
         <v>110</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>111</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>112</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>113</v>
       </c>
-      <c r="L10" t="s">
-        <v>114</v>
-      </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2260,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
         <v>115</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>116</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -2282,58 +2980,58 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
         <v>118</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>119</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>120</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>121</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>122</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="s">
-        <v>123</v>
       </c>
       <c r="O11" t="s">
         <v>52</v>
       </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="X11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
@@ -2349,52 +3047,46 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
         <v>127</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>128</v>
       </c>
-      <c r="J12" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" t="s">
-        <v>131</v>
-      </c>
       <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>132</v>
-      </c>
-      <c r="O12" t="s">
-        <v>133</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
       <c r="Y12" t="s">
         <v>131</v>
       </c>
@@ -2412,48 +3104,56 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
         <v>134</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>135</v>
       </c>
-      <c r="J13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>136</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>137</v>
       </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>132</v>
-      </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>130</v>
+      </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -2469,7 +3169,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2478,25 +3178,25 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2508,13 +3208,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
@@ -2530,7 +3230,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2539,39 +3239,49 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" t="s">
+        <v>154</v>
+      </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -2587,7 +3297,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2596,25 +3306,25 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2625,10 +3335,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" t="s">
+        <v>162</v>
+      </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -2644,7 +3358,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2653,25 +3367,25 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2683,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
@@ -2705,7 +3419,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2714,45 +3428,49 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" t="n">
+        <v>69</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
         <v>4</v>
-      </c>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
@@ -2768,7 +3486,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2777,43 +3495,49 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
@@ -2829,7 +3553,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2838,43 +3562,45 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>183</v>
-      </c>
-      <c r="X20" t="s">
-        <v>184</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
@@ -2890,7 +3616,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2899,49 +3625,39 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
         <v>52</v>
       </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>183</v>
-      </c>
-      <c r="X21" t="s">
-        <v>184</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
@@ -2957,7 +3673,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2966,25 +3682,25 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>195</v>
       </c>
-      <c r="L22" t="s">
-        <v>196</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>197</v>
-      </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2995,14 +3711,10 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>198</v>
-      </c>
-      <c r="X22" t="s">
-        <v>199</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
@@ -3018,7 +3730,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3027,47 +3739,37 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>207</v>
-      </c>
-      <c r="X23" t="s">
-        <v>208</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
         <v>209</v>
       </c>
@@ -3106,33 +3808,31 @@
         <v>214</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
         <v>215</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>2</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>216</v>
+      </c>
+      <c r="X24" t="s">
+        <v>217</v>
+      </c>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25">
@@ -3148,7 +3848,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3157,25 +3857,25 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
         <v>215</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3189,7 +3889,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
@@ -3205,7 +3905,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3214,45 +3914,39 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>215</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
@@ -3268,7 +3962,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3277,34 +3971,30 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3319,7 +4009,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
@@ -3335,7 +4025,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3344,51 +4034,41 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
-      </c>
-      <c r="P28" t="n">
+        <v>69</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
         <v>4</v>
       </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>238</v>
-      </c>
-      <c r="X28" t="s">
-        <v>239</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
         <v>240</v>
       </c>
@@ -3433,31 +4113,25 @@
         <v>246</v>
       </c>
       <c r="O29" t="s">
-        <v>133</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>247</v>
+      </c>
+      <c r="X29" t="s">
+        <v>248</v>
+      </c>
       <c r="Y29" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
@@ -3473,7 +4147,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3482,35 +4156,31 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J30" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K30" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O30" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
         <v>5</v>
       </c>
@@ -3521,14 +4191,10 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>253</v>
-      </c>
-      <c r="X30" t="s">
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
         <v>254</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="31">
@@ -3565,27 +4231,31 @@
         <v>260</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
         <v>261</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
@@ -3601,41 +4271,37 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
         <v>263</v>
       </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>264</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>265</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>266</v>
-      </c>
-      <c r="L32" t="s">
-        <v>267</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O32" t="s">
-        <v>61</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
         <v>5</v>
       </c>
@@ -3649,14 +4315,10 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>269</v>
-      </c>
-      <c r="X32" t="s">
-        <v>270</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33">
@@ -3672,62 +4334,44 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
+        <v>269</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>270</v>
+      </c>
+      <c r="J33" t="s">
+        <v>271</v>
+      </c>
+      <c r="K33" t="s">
         <v>272</v>
       </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
         <v>273</v>
       </c>
-      <c r="J33" t="s">
-        <v>274</v>
-      </c>
-      <c r="K33" t="s">
-        <v>275</v>
-      </c>
-      <c r="L33" t="s">
-        <v>276</v>
-      </c>
       <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>268</v>
-      </c>
-      <c r="O33" t="s">
-        <v>61</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>269</v>
-      </c>
-      <c r="X33" t="s">
-        <v>270</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34">
@@ -3743,62 +4387,52 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" t="s">
+        <v>276</v>
+      </c>
+      <c r="K34" t="s">
+        <v>277</v>
+      </c>
+      <c r="L34" t="s">
         <v>278</v>
       </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
         <v>279</v>
       </c>
-      <c r="J34" t="s">
+      <c r="O34" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
         <v>280</v>
       </c>
-      <c r="K34" t="s">
+      <c r="X34" t="s">
         <v>281</v>
       </c>
-      <c r="L34" t="s">
+      <c r="Y34" t="s">
         <v>282</v>
-      </c>
-      <c r="M34" t="n">
-        <v>4</v>
-      </c>
-      <c r="N34" t="s">
-        <v>268</v>
-      </c>
-      <c r="O34" t="s">
-        <v>61</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
-      <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="s">
-        <v>269</v>
-      </c>
-      <c r="X34" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="35">
@@ -3814,46 +4448,42 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
         <v>284</v>
       </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>285</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>286</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>287</v>
       </c>
-      <c r="L35" t="s">
-        <v>288</v>
-      </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -3862,10 +4492,14 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>280</v>
+      </c>
+      <c r="X35" t="s">
+        <v>281</v>
+      </c>
       <c r="Y35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
@@ -3881,58 +4515,52 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
+        <v>289</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>290</v>
+      </c>
+      <c r="J36" t="s">
         <v>291</v>
       </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>292</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>293</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
         <v>294</v>
-      </c>
-      <c r="L36" t="s">
-        <v>295</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4</v>
-      </c>
-      <c r="N36" t="s">
-        <v>296</v>
       </c>
       <c r="O36" t="s">
         <v>52</v>
       </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>295</v>
+      </c>
+      <c r="X36" t="s">
+        <v>296</v>
+      </c>
       <c r="Y36" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37">
@@ -3948,7 +4576,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3957,49 +4585,43 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="O37" t="s">
-        <v>133</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>303</v>
+      </c>
+      <c r="X37" t="s">
+        <v>304</v>
+      </c>
       <c r="Y37" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38">
@@ -4015,7 +4637,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4024,50 +4646,40 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="J38" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K38" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L38" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O38" t="s">
-        <v>309</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="X38" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="Y38" t="s">
         <v>312</v>
@@ -4113,35 +4725,31 @@
         <v>318</v>
       </c>
       <c r="O39" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
         <v>3</v>
       </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="X39" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Y39" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
@@ -4157,7 +4765,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4166,39 +4774,45 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J40" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K40" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L40" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>327</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
       <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>325</v>
-      </c>
-      <c r="X40" t="s">
-        <v>326</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41">
@@ -4214,7 +4828,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4223,49 +4837,39 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J41" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K41" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>327</v>
+      </c>
+      <c r="O41" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
         <v>333</v>
-      </c>
-      <c r="X41" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="42">
@@ -4281,58 +4885,44 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
+        <v>334</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>335</v>
+      </c>
+      <c r="J42" t="s">
         <v>336</v>
       </c>
-      <c r="G42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>337</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>338</v>
       </c>
-      <c r="K42" t="s">
-        <v>339</v>
-      </c>
-      <c r="L42" t="s">
-        <v>340</v>
-      </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
-      <c r="N42" t="s">
-        <v>341</v>
-      </c>
-      <c r="O42" t="s">
-        <v>61</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>342</v>
-      </c>
-      <c r="X42" t="s">
-        <v>343</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43">
@@ -4348,7 +4938,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4357,49 +4947,49 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J43" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K43" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="O43" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>351</v>
-      </c>
-      <c r="X43" t="s">
-        <v>352</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44">
@@ -4415,7 +5005,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4424,26 +5014,22 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="J44" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="K44" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
-      <c r="N44" t="s">
-        <v>359</v>
-      </c>
-      <c r="O44" t="s">
-        <v>68</v>
-      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
       <c r="P44" t="n">
         <v>5</v>
       </c>
@@ -4463,14 +5049,10 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>360</v>
-      </c>
-      <c r="X44" t="s">
-        <v>361</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45">
@@ -4486,7 +5068,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4495,53 +5077,49 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="J45" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="K45" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="O45" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>360</v>
-      </c>
-      <c r="X45" t="s">
-        <v>361</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46">
@@ -4557,7 +5135,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4566,47 +5144,53 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="J46" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="K46" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="O46" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
         <v>2</v>
       </c>
-      <c r="Q46" t="n">
-        <v>2</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
-      <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>361</v>
+      </c>
+      <c r="X46" t="s">
+        <v>362</v>
+      </c>
       <c r="Y46" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47">
@@ -4622,7 +5206,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4631,23 +5215,29 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="J47" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="K47" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="L47" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
-      <c r="P47" t="s"/>
+      <c r="N47" t="s">
+        <v>369</v>
+      </c>
+      <c r="O47" t="s">
+        <v>84</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
       <c r="Q47" t="n">
         <v>5</v>
       </c>
@@ -4658,16 +5248,14 @@
         <v>5</v>
       </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48">
@@ -4683,7 +5271,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4692,33 +5280,37 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="J48" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="K48" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+      <c r="N48" t="s">
+        <v>376</v>
+      </c>
+      <c r="O48" t="s">
+        <v>69</v>
+      </c>
       <c r="P48" t="n">
         <v>5</v>
       </c>
       <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
         <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -4730,7 +5322,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49">
@@ -4746,7 +5338,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4755,35 +5347,2327 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="J49" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="K49" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="L49" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>382</v>
+      </c>
+      <c r="O49" t="s">
+        <v>169</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
         <v>4</v>
       </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
-      <c r="S49" t="s"/>
-      <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>383</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>384</v>
+      </c>
+      <c r="J50" t="s">
+        <v>385</v>
+      </c>
+      <c r="K50" t="s">
+        <v>386</v>
+      </c>
+      <c r="L50" t="s">
+        <v>387</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>388</v>
+      </c>
+      <c r="O50" t="s">
+        <v>169</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>389</v>
+      </c>
+      <c r="X50" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y50" t="s">
         <v>391</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>392</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>393</v>
+      </c>
+      <c r="J51" t="s">
+        <v>394</v>
+      </c>
+      <c r="K51" t="s">
+        <v>395</v>
+      </c>
+      <c r="L51" t="s">
+        <v>396</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>397</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>399</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>400</v>
+      </c>
+      <c r="J52" t="s">
+        <v>401</v>
+      </c>
+      <c r="K52" t="s">
+        <v>402</v>
+      </c>
+      <c r="L52" t="s">
+        <v>403</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>404</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>405</v>
+      </c>
+      <c r="X52" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>408</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>409</v>
+      </c>
+      <c r="J53" t="s">
+        <v>410</v>
+      </c>
+      <c r="K53" t="s">
+        <v>411</v>
+      </c>
+      <c r="L53" t="s">
+        <v>412</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>413</v>
+      </c>
+      <c r="O53" t="s">
+        <v>91</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>414</v>
+      </c>
+      <c r="X53" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>417</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>418</v>
+      </c>
+      <c r="J54" t="s">
+        <v>419</v>
+      </c>
+      <c r="K54" t="s">
+        <v>420</v>
+      </c>
+      <c r="L54" t="s">
+        <v>421</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>422</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>423</v>
+      </c>
+      <c r="X54" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>426</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>427</v>
+      </c>
+      <c r="J55" t="s">
+        <v>428</v>
+      </c>
+      <c r="K55" t="s">
+        <v>429</v>
+      </c>
+      <c r="L55" t="s">
+        <v>430</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>422</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>423</v>
+      </c>
+      <c r="X55" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>432</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>433</v>
+      </c>
+      <c r="J56" t="s">
+        <v>434</v>
+      </c>
+      <c r="K56" t="s">
+        <v>435</v>
+      </c>
+      <c r="L56" t="s">
+        <v>436</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>422</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>423</v>
+      </c>
+      <c r="X56" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>438</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>439</v>
+      </c>
+      <c r="J57" t="s">
+        <v>440</v>
+      </c>
+      <c r="K57" t="s">
+        <v>441</v>
+      </c>
+      <c r="L57" t="s">
+        <v>442</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>443</v>
+      </c>
+      <c r="O57" t="s">
+        <v>169</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>444</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>445</v>
+      </c>
+      <c r="J58" t="s">
+        <v>446</v>
+      </c>
+      <c r="K58" t="s">
+        <v>447</v>
+      </c>
+      <c r="L58" t="s">
+        <v>448</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>443</v>
+      </c>
+      <c r="O58" t="s">
+        <v>169</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>450</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>451</v>
+      </c>
+      <c r="J59" t="s">
+        <v>452</v>
+      </c>
+      <c r="K59" t="s">
+        <v>453</v>
+      </c>
+      <c r="L59" t="s">
+        <v>454</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>376</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>456</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>457</v>
+      </c>
+      <c r="J60" t="s">
+        <v>458</v>
+      </c>
+      <c r="K60" t="s">
+        <v>459</v>
+      </c>
+      <c r="L60" t="s">
+        <v>460</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>461</v>
+      </c>
+      <c r="O60" t="s">
+        <v>69</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>462</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>463</v>
+      </c>
+      <c r="J61" t="s">
+        <v>464</v>
+      </c>
+      <c r="K61" t="s">
+        <v>465</v>
+      </c>
+      <c r="L61" t="s">
+        <v>466</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>467</v>
+      </c>
+      <c r="O61" t="s">
+        <v>169</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>468</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>469</v>
+      </c>
+      <c r="J62" t="s">
+        <v>470</v>
+      </c>
+      <c r="K62" t="s">
+        <v>471</v>
+      </c>
+      <c r="L62" t="s">
+        <v>472</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>467</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>473</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>474</v>
+      </c>
+      <c r="J63" t="s">
+        <v>475</v>
+      </c>
+      <c r="K63" t="s">
+        <v>476</v>
+      </c>
+      <c r="L63" t="s">
+        <v>477</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>478</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>479</v>
+      </c>
+      <c r="X63" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>482</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>483</v>
+      </c>
+      <c r="J64" t="s">
+        <v>484</v>
+      </c>
+      <c r="K64" t="s">
+        <v>485</v>
+      </c>
+      <c r="L64" t="s">
+        <v>486</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>478</v>
+      </c>
+      <c r="O64" t="s">
+        <v>91</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>479</v>
+      </c>
+      <c r="X64" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>488</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>489</v>
+      </c>
+      <c r="J65" t="s">
+        <v>490</v>
+      </c>
+      <c r="K65" t="s">
+        <v>491</v>
+      </c>
+      <c r="L65" t="s">
+        <v>492</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>493</v>
+      </c>
+      <c r="O65" t="s">
+        <v>84</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>479</v>
+      </c>
+      <c r="X65" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>495</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>496</v>
+      </c>
+      <c r="J66" t="s">
+        <v>497</v>
+      </c>
+      <c r="K66" t="s">
+        <v>498</v>
+      </c>
+      <c r="L66" t="s">
+        <v>499</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>500</v>
+      </c>
+      <c r="X66" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>503</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>504</v>
+      </c>
+      <c r="J67" t="s">
+        <v>505</v>
+      </c>
+      <c r="K67" t="s">
+        <v>506</v>
+      </c>
+      <c r="L67" t="s">
+        <v>507</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>508</v>
+      </c>
+      <c r="O67" t="s">
+        <v>69</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>509</v>
+      </c>
+      <c r="X67" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>512</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>513</v>
+      </c>
+      <c r="J68" t="s">
+        <v>514</v>
+      </c>
+      <c r="K68" t="s">
+        <v>515</v>
+      </c>
+      <c r="L68" t="s">
+        <v>516</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>517</v>
+      </c>
+      <c r="O68" t="s">
+        <v>84</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>518</v>
+      </c>
+      <c r="X68" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>521</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>522</v>
+      </c>
+      <c r="J69" t="s">
+        <v>523</v>
+      </c>
+      <c r="K69" t="s">
+        <v>524</v>
+      </c>
+      <c r="L69" t="s">
+        <v>525</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>526</v>
+      </c>
+      <c r="X69" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>529</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>530</v>
+      </c>
+      <c r="J70" t="s">
+        <v>531</v>
+      </c>
+      <c r="K70" t="s">
+        <v>532</v>
+      </c>
+      <c r="L70" t="s">
+        <v>533</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>534</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>535</v>
+      </c>
+      <c r="X70" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>538</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>539</v>
+      </c>
+      <c r="J71" t="s">
+        <v>540</v>
+      </c>
+      <c r="K71" t="s">
+        <v>541</v>
+      </c>
+      <c r="L71" t="s">
+        <v>542</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>543</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>544</v>
+      </c>
+      <c r="X71" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>547</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>548</v>
+      </c>
+      <c r="J72" t="s">
+        <v>549</v>
+      </c>
+      <c r="K72" t="s">
+        <v>550</v>
+      </c>
+      <c r="L72" t="s">
+        <v>551</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>552</v>
+      </c>
+      <c r="O72" t="s">
+        <v>169</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>553</v>
+      </c>
+      <c r="X72" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>556</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>557</v>
+      </c>
+      <c r="J73" t="s">
+        <v>558</v>
+      </c>
+      <c r="K73" t="s">
+        <v>559</v>
+      </c>
+      <c r="L73" t="s">
+        <v>560</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>561</v>
+      </c>
+      <c r="O73" t="s">
+        <v>84</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>562</v>
+      </c>
+      <c r="X73" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>565</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>566</v>
+      </c>
+      <c r="J74" t="s">
+        <v>567</v>
+      </c>
+      <c r="K74" t="s">
+        <v>568</v>
+      </c>
+      <c r="L74" t="s">
+        <v>569</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>561</v>
+      </c>
+      <c r="O74" t="s">
+        <v>84</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>570</v>
+      </c>
+      <c r="X74" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>573</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>574</v>
+      </c>
+      <c r="J75" t="s">
+        <v>575</v>
+      </c>
+      <c r="K75" t="s">
+        <v>576</v>
+      </c>
+      <c r="L75" t="s">
+        <v>577</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>578</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>570</v>
+      </c>
+      <c r="X75" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>580</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>581</v>
+      </c>
+      <c r="J76" t="s">
+        <v>582</v>
+      </c>
+      <c r="K76" t="s">
+        <v>583</v>
+      </c>
+      <c r="L76" t="s">
+        <v>584</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>585</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>587</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>588</v>
+      </c>
+      <c r="J77" t="s">
+        <v>589</v>
+      </c>
+      <c r="K77" t="s">
+        <v>590</v>
+      </c>
+      <c r="L77" t="s">
+        <v>591</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>592</v>
+      </c>
+      <c r="O77" t="s">
+        <v>84</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>594</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>595</v>
+      </c>
+      <c r="J78" t="s">
+        <v>596</v>
+      </c>
+      <c r="K78" t="s">
+        <v>597</v>
+      </c>
+      <c r="L78" t="s">
+        <v>598</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>599</v>
+      </c>
+      <c r="O78" t="s">
+        <v>84</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>600</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>601</v>
+      </c>
+      <c r="J79" t="s">
+        <v>602</v>
+      </c>
+      <c r="K79" t="s">
+        <v>603</v>
+      </c>
+      <c r="L79" t="s">
+        <v>604</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>605</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>606</v>
+      </c>
+      <c r="J80" t="s">
+        <v>607</v>
+      </c>
+      <c r="K80" t="s">
+        <v>608</v>
+      </c>
+      <c r="L80" t="s">
+        <v>609</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>610</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>611</v>
+      </c>
+      <c r="J81" t="s">
+        <v>612</v>
+      </c>
+      <c r="K81" t="s">
+        <v>613</v>
+      </c>
+      <c r="L81" t="s">
+        <v>614</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>615</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>616</v>
+      </c>
+      <c r="J82" t="s">
+        <v>617</v>
+      </c>
+      <c r="K82" t="s">
+        <v>618</v>
+      </c>
+      <c r="L82" t="s">
+        <v>619</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>620</v>
+      </c>
+      <c r="O82" t="s">
+        <v>84</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33114</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>621</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>622</v>
+      </c>
+      <c r="J83" t="s">
+        <v>623</v>
+      </c>
+      <c r="K83" t="s">
+        <v>624</v>
+      </c>
+      <c r="L83" t="s">
+        <v>625</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
